--- a/excel/TestModeKey.xlsx
+++ b/excel/TestModeKey.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hakanerdogmus/dev/pysheetgrader-parent/pysheetgrader-core-main/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hakanerdogmus/dev/pysheetgrader-parent/pysheetgrader-bk/pysheetgrader-core/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFEDDB36-C50E-894F-B2C2-7E92C0942870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F5FF4F-E30D-2348-BDFB-7D732A133DE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="34680" windowHeight="14140" tabRatio="883" activeTab="8" xr2:uid="{6E72627C-1CB6-4848-9B50-C1295434D515}"/>
+    <workbookView xWindow="-51200" yWindow="-700" windowWidth="51200" windowHeight="21060" tabRatio="883" firstSheet="1" activeTab="4" xr2:uid="{6E72627C-1CB6-4848-9B50-C1295434D515}"/>
   </bookViews>
   <sheets>
     <sheet name="SheetGradingOrder" sheetId="1" r:id="rId1"/>
@@ -22,8 +22,8 @@
     <sheet name="RRelative_CheckOrder" sheetId="14" r:id="rId7"/>
     <sheet name="RCheck" sheetId="8" r:id="rId8"/>
     <sheet name="RCheck_CheckOrder" sheetId="9" r:id="rId9"/>
-    <sheet name="SoftFormula Samples_CheckOrder" sheetId="17" r:id="rId10"/>
-    <sheet name="SoftFormula Samples" sheetId="16" r:id="rId11"/>
+    <sheet name="SoftFormula Samples" sheetId="16" r:id="rId10"/>
+    <sheet name="SoftFormula Samples_CheckOrder" sheetId="17" r:id="rId11"/>
     <sheet name="RelativeF Samples_CheckOrder" sheetId="10" r:id="rId12"/>
     <sheet name="RelativeF Samples" sheetId="11" r:id="rId13"/>
     <sheet name="Test Case Samples_CheckOrder" sheetId="13" r:id="rId14"/>
@@ -4743,9 +4743,29 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>rubric:
- score: 0
- type: soft_formula</t>
+          <t xml:space="preserve">rubric:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve"> score: 0
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve"> type: soft_formula</t>
         </r>
       </text>
     </comment>
@@ -6002,7 +6022,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="400">
   <si>
     <t>Number</t>
   </si>
@@ -7199,6 +7219,9 @@
   </si>
   <si>
     <t>Check17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bug fixed: Check the score by removing --test-mode: when two cells have equivalent formulas, score should not double! </t>
   </si>
 </sst>
 </file>
@@ -7209,7 +7232,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7309,10 +7332,10 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7635,13 +7658,13 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="14.33203125" customWidth="1"/>
     <col min="4" max="4" width="32.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7658,7 +7681,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7672,7 +7695,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -7686,7 +7709,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>2</v>
       </c>
@@ -7700,7 +7723,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>3</v>
       </c>
@@ -7720,6 +7743,144 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E3B6745-E38C-48B8-BF02-AA99A147A5ED}">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="16384" width="8.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2020</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1">
+        <f>B2 / 10</f>
+        <v>202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
+        <f>ROUNDUP(B2 / 100, 0)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1">
+        <f>B6 / 1000</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1">
+        <f>B6 * 3.28084</f>
+        <v>3280.84</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1">
+        <f>B6 * 39.3701</f>
+        <v>39370.1</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="C10" s="1">
+        <f>B6 * 39.37</f>
+        <v>39370</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="1">
+        <f>SUM(B2:B4)</f>
+        <v>2243</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="1">
+        <f>SUM(B2:B4) + 2</f>
+        <v>2245</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="1">
+        <f>SUM(B2:B4)</f>
+        <v>2243</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"Page &amp;P</oddFooter>
+  </headerFooter>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E83D290E-9ED5-490F-8FA5-D7E745EE5395}">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -7727,12 +7888,12 @@
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7740,7 +7901,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -7751,7 +7912,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -7759,7 +7920,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -7767,7 +7928,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -7775,7 +7936,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -7783,7 +7944,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -7791,7 +7952,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -7799,7 +7960,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -7807,7 +7968,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -7826,144 +7987,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E3B6745-E38C-48B8-BF02-AA99A147A5ED}">
-  <dimension ref="A1:E13"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="16384" width="8.6640625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1">
-        <v>2020</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1">
-        <f>B2 / 10</f>
-        <v>202</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1">
-        <f>ROUNDUP(B2 / 100, 0)</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="1">
-        <f>B6 / 1000</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="1">
-        <f>B6 * 3.28084</f>
-        <v>3280.84</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="1">
-        <f>B6 * 39.3701</f>
-        <v>39370.1</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C10" s="1">
-        <f>B6 * 39.37</f>
-        <v>39370</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="1">
-        <f>SUM(B2:B4)</f>
-        <v>2243</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="1">
-        <f>SUM(B2:B4) + 2</f>
-        <v>2245</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" s="1">
-        <f>SUM(B2:B4)</f>
-        <v>2243</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"Page &amp;P</oddFooter>
-  </headerFooter>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B46F8006-805A-2247-9212-CACA8E8D41A6}">
   <dimension ref="A1:B9"/>
@@ -7972,9 +7995,9 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7982,7 +8005,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7990,7 +8013,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -7998,7 +8021,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8006,7 +8029,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -8014,7 +8037,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -8022,7 +8045,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -8030,7 +8053,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -8038,7 +8061,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -8060,14 +8083,14 @@
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2">
         <f t="shared" ref="A2:A9" si="0">B2+C2</f>
         <v>300</v>
@@ -8082,7 +8105,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3">
         <f t="shared" si="0"/>
         <v>300</v>
@@ -8097,7 +8120,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>300</v>
@@ -8112,7 +8135,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>300</v>
@@ -8127,7 +8150,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>300</v>
@@ -8142,7 +8165,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>300</v>
@@ -8157,7 +8180,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>300</v>
@@ -8172,7 +8195,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>300</v>
@@ -8187,7 +8210,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="F10">
         <v>8888</v>
       </c>
@@ -8206,9 +8229,9 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8216,7 +8239,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8224,7 +8247,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8232,7 +8255,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8240,7 +8263,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -8261,12 +8284,12 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -8277,7 +8300,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -8288,7 +8311,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -8297,7 +8320,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -8305,7 +8328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -8317,7 +8340,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -8325,7 +8348,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -8334,7 +8357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -8346,7 +8369,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -8358,13 +8381,13 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="C11">
         <f>B7 * 39.37</f>
         <v>39370</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -8387,9 +8410,9 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8397,7 +8420,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8405,7 +8428,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8413,7 +8436,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8421,7 +8444,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -8429,7 +8452,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -8437,7 +8460,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -8445,7 +8468,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -8453,7 +8476,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -8461,7 +8484,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -8483,13 +8506,13 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="17.1640625" customWidth="1"/>
     <col min="2" max="2" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -8500,7 +8523,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -8511,7 +8534,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -8520,7 +8543,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -8529,7 +8552,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -8537,7 +8560,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -8546,7 +8569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -8558,7 +8581,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -8570,13 +8593,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="C10">
         <f xml:space="preserve"> B6 * 39.37</f>
         <v>39370</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>46</v>
       </c>
@@ -8584,7 +8607,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>44</v>
       </c>
@@ -8604,11 +8627,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A103586-2C0E-0748-80AF-98E299C769E5}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView topLeftCell="C4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="17.1640625" customWidth="1"/>
     <col min="2" max="2" width="18.5" customWidth="1"/>
@@ -8620,17 +8643,17 @@
     <col min="8" max="8" width="14.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -8657,7 +8680,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -8682,7 +8705,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -8707,7 +8730,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -8733,7 +8756,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -8758,7 +8781,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -8784,7 +8807,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>82</v>
       </c>
@@ -8810,12 +8833,12 @@
         <v>113</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -8840,7 +8863,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -8866,7 +8889,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -8892,7 +8915,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -8918,7 +8941,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>65</v>
       </c>
@@ -8928,7 +8951,7 @@
       </c>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -8953,7 +8976,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
         <v>65</v>
       </c>
@@ -8961,7 +8984,7 @@
         <v>39370.1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -8985,7 +9008,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -9009,7 +9032,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -9033,7 +9056,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -9068,18 +9091,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71EABA77-C8A8-0247-A6AC-2452B8B329D1}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <cols>
     <col min="3" max="3" width="40.1640625" customWidth="1"/>
     <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="71.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9099,7 +9122,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>95</v>
       </c>
@@ -9116,7 +9139,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>96</v>
       </c>
@@ -9133,7 +9156,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>97</v>
       </c>
@@ -9153,7 +9176,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>98</v>
       </c>
@@ -9170,7 +9193,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>99</v>
       </c>
@@ -9187,7 +9210,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>100</v>
       </c>
@@ -9207,7 +9230,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>101</v>
       </c>
@@ -9224,7 +9247,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>102</v>
       </c>
@@ -9241,7 +9264,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>103</v>
       </c>
@@ -9258,7 +9281,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>104</v>
       </c>
@@ -9275,7 +9298,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>105</v>
       </c>
@@ -9292,7 +9315,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>106</v>
       </c>
@@ -9309,7 +9332,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>107</v>
       </c>
@@ -9326,7 +9349,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>380</v>
       </c>
@@ -9343,7 +9366,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>385</v>
       </c>
@@ -9371,31 +9394,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEB70C9E-5A32-AF4F-951C-2DFC686CB197}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView topLeftCell="C27" zoomScale="133" zoomScaleNormal="133" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="133" zoomScaleNormal="133" workbookViewId="0">
       <selection activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="30.5" customWidth="1"/>
     <col min="2" max="2" width="15.6640625" customWidth="1"/>
     <col min="3" max="3" width="16.83203125" customWidth="1"/>
-    <col min="5" max="5" width="75.1640625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="75.1640625" style="9" customWidth="1"/>
     <col min="6" max="6" width="7" customWidth="1"/>
     <col min="7" max="7" width="39.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="34">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -9406,7 +9429,7 @@
         <v>306</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>6</v>
       </c>
       <c r="F4" t="s">
@@ -9422,7 +9445,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="17">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -9432,7 +9455,7 @@
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="9" t="s">
         <v>252</v>
       </c>
       <c r="F5" t="s">
@@ -9445,7 +9468,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="17">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -9454,7 +9477,7 @@
         <v>2020</v>
       </c>
       <c r="D6" s="2"/>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="9" t="s">
         <v>274</v>
       </c>
       <c r="F6" t="s">
@@ -9470,7 +9493,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="17">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -9480,7 +9503,7 @@
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="9" t="s">
         <v>255</v>
       </c>
       <c r="F7" t="s">
@@ -9496,7 +9519,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="17">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -9506,7 +9529,7 @@
         <v>202</v>
       </c>
       <c r="D8" s="2"/>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="9" t="s">
         <v>257</v>
       </c>
       <c r="F8" t="s">
@@ -9522,7 +9545,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="17">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -9531,7 +9554,7 @@
         <v>202</v>
       </c>
       <c r="D9" s="2"/>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="9" t="s">
         <v>259</v>
       </c>
       <c r="F9" t="s">
@@ -9547,7 +9570,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="17">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -9557,7 +9580,7 @@
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="9" t="s">
         <v>266</v>
       </c>
       <c r="F10" t="s">
@@ -9573,7 +9596,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="17">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -9583,7 +9606,7 @@
         <v>20.2</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="9" t="s">
         <v>267</v>
       </c>
       <c r="F11" t="s">
@@ -9599,7 +9622,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="17">
       <c r="A12" t="s">
         <v>82</v>
       </c>
@@ -9609,7 +9632,7 @@
         <v>20.2</v>
       </c>
       <c r="D12" s="2"/>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="9" t="s">
         <v>281</v>
       </c>
       <c r="F12" t="s">
@@ -9625,7 +9648,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="17">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -9635,7 +9658,7 @@
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="9" t="s">
         <v>284</v>
       </c>
       <c r="F13" t="s">
@@ -9648,7 +9671,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="17">
       <c r="A14" t="s">
         <v>290</v>
       </c>
@@ -9658,7 +9681,7 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="9" t="s">
         <v>284</v>
       </c>
       <c r="F14" t="s">
@@ -9671,7 +9694,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="17">
       <c r="A15" t="s">
         <v>289</v>
       </c>
@@ -9681,7 +9704,7 @@
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="9" t="s">
         <v>284</v>
       </c>
       <c r="F15" t="s">
@@ -9694,7 +9717,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="17">
       <c r="A16" t="s">
         <v>300</v>
       </c>
@@ -9704,7 +9727,7 @@
         <v>40.4</v>
       </c>
       <c r="D16" s="2"/>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="9" t="s">
         <v>298</v>
       </c>
       <c r="F16" t="s">
@@ -9720,12 +9743,12 @@
         <v>302</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="17">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -9735,7 +9758,7 @@
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="9" t="s">
         <v>295</v>
       </c>
       <c r="F18" t="s">
@@ -9751,7 +9774,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -9760,7 +9783,7 @@
       </c>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="17">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -9770,7 +9793,7 @@
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="9" t="s">
         <v>304</v>
       </c>
       <c r="F20" t="s">
@@ -9786,7 +9809,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="17">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -9796,7 +9819,7 @@
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="10" t="s">
+      <c r="E21" s="9" t="s">
         <v>266</v>
       </c>
       <c r="F21" t="s">
@@ -9812,7 +9835,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="17">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -9822,7 +9845,7 @@
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="10" t="s">
+      <c r="E22" s="9" t="s">
         <v>345</v>
       </c>
       <c r="F22" t="s">
@@ -9838,7 +9861,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="17">
       <c r="A23" t="s">
         <v>65</v>
       </c>
@@ -9847,7 +9870,7 @@
         <v>39370</v>
       </c>
       <c r="D23" s="2"/>
-      <c r="E23" s="10" t="s">
+      <c r="E23" s="9" t="s">
         <v>325</v>
       </c>
       <c r="F23" t="s">
@@ -9860,7 +9883,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="17">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -9869,7 +9892,7 @@
         <v>39370.1</v>
       </c>
       <c r="D24" s="2"/>
-      <c r="E24" s="10" t="s">
+      <c r="E24" s="9" t="s">
         <v>348</v>
       </c>
       <c r="F24" t="s">
@@ -9885,7 +9908,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
         <v>65</v>
       </c>
@@ -9894,7 +9917,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="17">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -9902,7 +9925,7 @@
         <f>B18*40</f>
         <v>40000</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="E26" s="9" t="s">
         <v>355</v>
       </c>
       <c r="F26" s="5" t="s">
@@ -9918,7 +9941,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="17">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -9926,7 +9949,7 @@
         <f>B18*45</f>
         <v>45000</v>
       </c>
-      <c r="E27" s="10" t="s">
+      <c r="E27" s="9" t="s">
         <v>352</v>
       </c>
       <c r="F27" s="5" t="s">
@@ -9942,7 +9965,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="17">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -9950,7 +9973,7 @@
         <f xml:space="preserve"> B18*39.37</f>
         <v>39370</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="E28" s="9" t="s">
         <v>358</v>
       </c>
       <c r="F28" s="5" t="s">
@@ -9966,7 +9989,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
         <v>65</v>
       </c>
@@ -9975,7 +9998,7 @@
         <v>38000</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" ht="17">
       <c r="A31" t="s">
         <v>269</v>
       </c>
@@ -9983,7 +10006,7 @@
         <f>ROUNDUP(C6/100, 0)</f>
         <v>21</v>
       </c>
-      <c r="E31" s="10" t="s">
+      <c r="E31" s="9" t="s">
         <v>311</v>
       </c>
       <c r="F31" s="5" t="s">
@@ -9999,12 +10022,12 @@
         <v>314</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9">
       <c r="A34" t="s">
         <v>331</v>
       </c>
@@ -10012,7 +10035,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9">
       <c r="A35" t="s">
         <v>332</v>
       </c>
@@ -10020,7 +10043,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" ht="17">
       <c r="A36" t="s">
         <v>333</v>
       </c>
@@ -10028,7 +10051,7 @@
         <f>B34+B35</f>
         <v>30</v>
       </c>
-      <c r="E36" s="10" t="s">
+      <c r="E36" s="9" t="s">
         <v>359</v>
       </c>
       <c r="F36" t="s">
@@ -10041,7 +10064,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" ht="17">
       <c r="A37" t="s">
         <v>334</v>
       </c>
@@ -10049,7 +10072,7 @@
         <f>B34+B35</f>
         <v>30</v>
       </c>
-      <c r="E37" s="10" t="s">
+      <c r="E37" s="9" t="s">
         <v>360</v>
       </c>
       <c r="F37" t="s">
@@ -10062,7 +10085,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" ht="17">
       <c r="A38" t="s">
         <v>335</v>
       </c>
@@ -10070,7 +10093,7 @@
         <f>B34+B35</f>
         <v>30</v>
       </c>
-      <c r="E38" s="10" t="s">
+      <c r="E38" s="9" t="s">
         <v>361</v>
       </c>
       <c r="F38" t="s">
@@ -10083,7 +10106,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9">
       <c r="A39" t="s">
         <v>328</v>
       </c>
@@ -10092,7 +10115,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9">
       <c r="A40" t="s">
         <v>329</v>
       </c>
@@ -10101,7 +10124,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9">
       <c r="A41" t="s">
         <v>330</v>
       </c>
@@ -10110,7 +10133,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" ht="34">
       <c r="A42" t="s">
         <v>342</v>
       </c>
@@ -10118,7 +10141,7 @@
         <f>B34-B35</f>
         <v>-10</v>
       </c>
-      <c r="E42" s="10" t="s">
+      <c r="E42" s="9" t="s">
         <v>366</v>
       </c>
       <c r="F42" t="s">
@@ -10146,16 +10169,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AF83535-20BE-CA43-B82B-2F0E1F118D83}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <cols>
     <col min="3" max="3" width="37.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10172,7 +10195,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>261</v>
       </c>
@@ -10188,7 +10211,7 @@
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>262</v>
       </c>
@@ -10205,7 +10228,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>263</v>
       </c>
@@ -10222,7 +10245,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>264</v>
       </c>
@@ -10239,7 +10262,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>270</v>
       </c>
@@ -10256,7 +10279,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>271</v>
       </c>
@@ -10273,7 +10296,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>280</v>
       </c>
@@ -10290,7 +10313,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>282</v>
       </c>
@@ -10307,7 +10330,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>285</v>
       </c>
@@ -10321,7 +10344,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>291</v>
       </c>
@@ -10335,7 +10358,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>292</v>
       </c>
@@ -10349,7 +10372,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>303</v>
       </c>
@@ -10366,7 +10389,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>315</v>
       </c>
@@ -10383,7 +10406,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>316</v>
       </c>
@@ -10400,7 +10423,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>317</v>
       </c>
@@ -10417,7 +10440,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>318</v>
       </c>
@@ -10434,7 +10457,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>319</v>
       </c>
@@ -10448,7 +10471,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>320</v>
       </c>
@@ -10465,7 +10488,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>321</v>
       </c>
@@ -10482,7 +10505,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>322</v>
       </c>
@@ -10499,7 +10522,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>323</v>
       </c>
@@ -10516,7 +10539,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>326</v>
       </c>
@@ -10533,7 +10556,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>339</v>
       </c>
@@ -10547,7 +10570,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>340</v>
       </c>
@@ -10561,7 +10584,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>341</v>
       </c>
@@ -10575,7 +10598,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>344</v>
       </c>
@@ -10586,10 +10609,10 @@
         <v>365</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E27" t="s">
-        <v>367</v>
+        <v>399</v>
       </c>
     </row>
   </sheetData>
@@ -10607,7 +10630,7 @@
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="24.5" customWidth="1"/>
     <col min="2" max="2" width="14.1640625" customWidth="1"/>
@@ -10620,17 +10643,17 @@
     <col min="9" max="9" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="51">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -10660,8 +10683,8 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:10">
+      <c r="A5" s="10" t="s">
         <v>124</v>
       </c>
       <c r="B5">
@@ -10671,8 +10694,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="9"/>
+    <row r="6" spans="1:10">
+      <c r="A6" s="10"/>
       <c r="B6">
         <v>5</v>
       </c>
@@ -10680,8 +10703,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
+    <row r="7" spans="1:10">
+      <c r="A7" s="10"/>
       <c r="B7">
         <v>10</v>
       </c>
@@ -10689,8 +10712,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="9"/>
+    <row r="8" spans="1:10">
+      <c r="A8" s="10"/>
       <c r="B8">
         <v>1</v>
       </c>
@@ -10698,8 +10721,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="9"/>
+    <row r="9" spans="1:10">
+      <c r="A9" s="10"/>
       <c r="B9">
         <v>6</v>
       </c>
@@ -10707,7 +10730,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>185</v>
       </c>
@@ -10728,7 +10751,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>185</v>
       </c>
@@ -10749,7 +10772,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>173</v>
       </c>
@@ -10770,7 +10793,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
         <v>173</v>
       </c>
@@ -10791,7 +10814,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>125</v>
       </c>
@@ -10812,7 +10835,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
         <v>125</v>
       </c>
@@ -10833,7 +10856,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>125</v>
       </c>
@@ -10854,7 +10877,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
         <v>125</v>
       </c>
@@ -10878,7 +10901,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
         <v>135</v>
       </c>
@@ -10902,7 +10925,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>136</v>
       </c>
@@ -10911,7 +10934,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
         <v>135</v>
       </c>
@@ -10935,7 +10958,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
         <v>136</v>
       </c>
@@ -10944,7 +10967,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
         <v>141</v>
       </c>
@@ -10968,7 +10991,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
         <v>141</v>
       </c>
@@ -10992,7 +11015,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
         <v>141</v>
       </c>
@@ -11013,7 +11036,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
         <v>141</v>
       </c>
@@ -11037,7 +11060,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
         <v>125</v>
       </c>
@@ -11061,7 +11084,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
         <v>135</v>
       </c>
@@ -11085,7 +11108,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
         <v>191</v>
       </c>
@@ -11110,14 +11133,14 @@
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <cols>
     <col min="3" max="3" width="43.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.33203125" customWidth="1"/>
     <col min="5" max="5" width="33.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11138,7 +11161,7 @@
       </c>
       <c r="G1" s="6"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>199</v>
       </c>
@@ -11152,7 +11175,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>201</v>
       </c>
@@ -11166,7 +11189,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>202</v>
       </c>
@@ -11180,7 +11203,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>203</v>
       </c>
@@ -11194,7 +11217,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>217</v>
       </c>
@@ -11208,7 +11231,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>218</v>
       </c>
@@ -11222,7 +11245,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>221</v>
       </c>
@@ -11236,7 +11259,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>224</v>
       </c>
@@ -11253,7 +11276,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>228</v>
       </c>
@@ -11270,7 +11293,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>231</v>
       </c>
@@ -11287,7 +11310,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>234</v>
       </c>
@@ -11304,7 +11327,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>244</v>
       </c>
@@ -11321,7 +11344,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>245</v>
       </c>
@@ -11335,7 +11358,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>246</v>
       </c>
@@ -11352,7 +11375,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>247</v>
       </c>
@@ -11369,7 +11392,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>248</v>
       </c>
@@ -11400,7 +11423,7 @@
       <selection activeCell="G27" sqref="G27:J29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="24.5" customWidth="1"/>
     <col min="2" max="2" width="14.1640625" customWidth="1"/>
@@ -11413,17 +11436,17 @@
     <col min="10" max="10" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -11456,8 +11479,8 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:11">
+      <c r="A5" s="10" t="s">
         <v>124</v>
       </c>
       <c r="B5">
@@ -11467,8 +11490,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="9"/>
+    <row r="6" spans="1:11">
+      <c r="A6" s="10"/>
       <c r="B6">
         <v>5</v>
       </c>
@@ -11476,8 +11499,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
+    <row r="7" spans="1:11">
+      <c r="A7" s="10"/>
       <c r="B7">
         <v>10</v>
       </c>
@@ -11485,8 +11508,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="9"/>
+    <row r="8" spans="1:11">
+      <c r="A8" s="10"/>
       <c r="B8">
         <v>1</v>
       </c>
@@ -11494,8 +11517,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="9"/>
+    <row r="9" spans="1:11">
+      <c r="A9" s="10"/>
       <c r="B9">
         <v>6</v>
       </c>
@@ -11503,7 +11526,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>185</v>
       </c>
@@ -11527,7 +11550,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>185</v>
       </c>
@@ -11548,7 +11571,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>173</v>
       </c>
@@ -11569,7 +11592,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>173</v>
       </c>
@@ -11590,7 +11613,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
         <v>125</v>
       </c>
@@ -11614,7 +11637,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>125</v>
       </c>
@@ -11638,7 +11661,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
         <v>125</v>
       </c>
@@ -11659,7 +11682,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
         <v>125</v>
       </c>
@@ -11683,7 +11706,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
         <v>135</v>
       </c>
@@ -11707,7 +11730,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
         <v>136</v>
       </c>
@@ -11716,7 +11739,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
         <v>135</v>
       </c>
@@ -11740,7 +11763,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
         <v>136</v>
       </c>
@@ -11749,7 +11772,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
         <v>141</v>
       </c>
@@ -11773,7 +11796,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
         <v>141</v>
       </c>
@@ -11797,7 +11820,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10">
       <c r="A24" t="s">
         <v>141</v>
       </c>
@@ -11825,7 +11848,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
         <v>141</v>
       </c>
@@ -11849,7 +11872,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10">
       <c r="A26" t="s">
         <v>125</v>
       </c>
@@ -11873,7 +11896,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10">
       <c r="A27" t="s">
         <v>135</v>
       </c>
@@ -11897,7 +11920,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10">
       <c r="A28" t="s">
         <v>191</v>
       </c>
@@ -11905,7 +11928,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10">
       <c r="A29" t="s">
         <v>135</v>
       </c>
@@ -11941,11 +11964,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05739818-17B0-D842-BB6C-69A1E595FDFD}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="38.6640625" bestFit="1" customWidth="1"/>
@@ -11955,7 +11978,7 @@
     <col min="8" max="8" width="24.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11975,7 +11998,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>158</v>
       </c>
@@ -11992,7 +12015,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>159</v>
       </c>
@@ -12006,7 +12029,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>160</v>
       </c>
@@ -12020,7 +12043,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>161</v>
       </c>
@@ -12034,7 +12057,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>162</v>
       </c>
@@ -12048,7 +12071,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>163</v>
       </c>
@@ -12062,7 +12085,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>164</v>
       </c>
@@ -12076,7 +12099,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>165</v>
       </c>
@@ -12093,7 +12116,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>166</v>
       </c>
@@ -12110,7 +12133,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>167</v>
       </c>
@@ -12127,7 +12150,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>168</v>
       </c>
@@ -12144,7 +12167,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>169</v>
       </c>
@@ -12161,7 +12184,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>176</v>
       </c>
@@ -12178,7 +12201,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>180</v>
       </c>
@@ -12195,7 +12218,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>181</v>
       </c>
@@ -12212,7 +12235,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>196</v>
       </c>
@@ -12229,7 +12252,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>398</v>
       </c>

--- a/excel/TestModeKey.xlsx
+++ b/excel/TestModeKey.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hakanerdogmus/dev/pysheetgrader-parent/pysheetgrader-bk/pysheetgrader-core/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F5FF4F-E30D-2348-BDFB-7D732A133DE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{715651B7-5CA6-C942-BD8F-F897E83D1DF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51200" yWindow="-700" windowWidth="51200" windowHeight="21060" tabRatio="883" firstSheet="1" activeTab="4" xr2:uid="{6E72627C-1CB6-4848-9B50-C1295434D515}"/>
+    <workbookView xWindow="-50540" yWindow="-740" windowWidth="26820" windowHeight="21100" tabRatio="883" firstSheet="1" activeTab="2" xr2:uid="{6E72627C-1CB6-4848-9B50-C1295434D515}"/>
   </bookViews>
   <sheets>
     <sheet name="SheetGradingOrder" sheetId="1" r:id="rId1"/>
@@ -6022,7 +6022,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="401">
   <si>
     <t>Number</t>
   </si>
@@ -7222,6 +7222,9 @@
   </si>
   <si>
     <t xml:space="preserve">Bug fixed: Check the score by removing --test-mode: when two cells have equivalent formulas, score should not double! </t>
+  </si>
+  <si>
+    <t>T-Constant-AltCell-BothMatch-CheckDblScore-ForcedToFAIL</t>
   </si>
 </sst>
 </file>
@@ -9091,8 +9094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71EABA77-C8A8-0247-A6AC-2452B8B329D1}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -9306,7 +9309,7 @@
         <v>91</v>
       </c>
       <c r="C12" t="s">
-        <v>382</v>
+        <v>400</v>
       </c>
       <c r="D12" t="s">
         <v>60</v>
@@ -10169,7 +10172,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AF83535-20BE-CA43-B82B-2F0E1F118D83}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
@@ -11419,8 +11422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B5E91EC-3DFF-1543-8E9D-3526C440EDB3}">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="137" zoomScaleNormal="137" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27:J29"/>
+    <sheetView zoomScale="137" zoomScaleNormal="137" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -11965,7 +11968,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>

--- a/excel/TestModeKey.xlsx
+++ b/excel/TestModeKey.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hakanerdogmus/dev/pysheetgrader-parent/pysheetgrader-core-main/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrew/git/pysheetgrader-core/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFEDDB36-C50E-894F-B2C2-7E92C0942870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F7ABE01-0897-9F4E-BE0B-9B004A539666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="34680" windowHeight="14140" tabRatio="883" activeTab="8" xr2:uid="{6E72627C-1CB6-4848-9B50-C1295434D515}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="14140" tabRatio="883" activeTab="2" xr2:uid="{6E72627C-1CB6-4848-9B50-C1295434D515}"/>
   </bookViews>
   <sheets>
     <sheet name="SheetGradingOrder" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <sheet name="Minimum Work_CheckOrder" sheetId="18" r:id="rId16"/>
     <sheet name="Minimum Work" sheetId="19" r:id="rId17"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -3493,6 +3493,87 @@
         </r>
       </text>
     </comment>
+    <comment ref="C29" authorId="0" shapeId="0" xr:uid="{352D8B4A-FD27-D442-B8D7-A9D580069C10}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>rubric:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> score: 1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> type: relative
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">alt_cells:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> - B30
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> - B31</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -4599,6 +4680,88 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve"> type: check</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C30" authorId="0" shapeId="0" xr:uid="{A69C7DBC-568D-E649-82BE-A8E5C0983CF8}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>rubric:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> score: 1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> type: check
+ result: D30
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">alt_cells:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> - B31
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> - B32</t>
         </r>
       </text>
     </comment>
@@ -6002,7 +6165,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="409">
   <si>
     <t>Number</t>
   </si>
@@ -7199,6 +7362,36 @@
   </si>
   <si>
     <t>Check17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relative rubric with alt cells - one alt is identical to orig </t>
+  </si>
+  <si>
+    <t>Rel17</t>
+  </si>
+  <si>
+    <t>T-Relative-AltCell-DupeAltCellCorrect</t>
+  </si>
+  <si>
+    <t>Bug: check the score!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check rubric with alt cells - one alt is identical to orig </t>
+  </si>
+  <si>
+    <t>T-Check-AltCell-DuplicateScore</t>
+  </si>
+  <si>
+    <t>Check18</t>
+  </si>
+  <si>
+    <t>C30</t>
+  </si>
+  <si>
+    <t>T-Check-Alt-Double</t>
+  </si>
+  <si>
+    <t>Expected-Score</t>
   </si>
 </sst>
 </file>
@@ -7309,10 +7502,10 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -8604,8 +8797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A103586-2C0E-0748-80AF-98E299C769E5}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView topLeftCell="C4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9066,10 +9259,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71EABA77-C8A8-0247-A6AC-2452B8B329D1}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9079,7 +9272,7 @@
     <col min="5" max="5" width="71.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9098,8 +9291,11 @@
       <c r="F1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>95</v>
       </c>
@@ -9115,8 +9311,11 @@
       <c r="E2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>96</v>
       </c>
@@ -9132,8 +9331,11 @@
       <c r="E3" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>97</v>
       </c>
@@ -9152,8 +9354,11 @@
       <c r="F4" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>98</v>
       </c>
@@ -9169,8 +9374,11 @@
       <c r="E5" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>99</v>
       </c>
@@ -9186,8 +9394,11 @@
       <c r="E6" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>100</v>
       </c>
@@ -9206,8 +9417,11 @@
       <c r="F7" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>101</v>
       </c>
@@ -9223,8 +9437,11 @@
       <c r="E8" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>102</v>
       </c>
@@ -9240,8 +9457,11 @@
       <c r="E9" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>103</v>
       </c>
@@ -9257,8 +9477,11 @@
       <c r="E10" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>104</v>
       </c>
@@ -9274,8 +9497,11 @@
       <c r="E11" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G11">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>105</v>
       </c>
@@ -9286,13 +9512,16 @@
         <v>382</v>
       </c>
       <c r="D12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E12" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>106</v>
       </c>
@@ -9308,8 +9537,11 @@
       <c r="E13" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G13">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>107</v>
       </c>
@@ -9325,8 +9557,11 @@
       <c r="E14" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>380</v>
       </c>
@@ -9342,8 +9577,11 @@
       <c r="E15" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G15">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>385</v>
       </c>
@@ -9358,6 +9596,9 @@
       </c>
       <c r="E16" t="s">
         <v>386</v>
+      </c>
+      <c r="G16">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>
@@ -9371,8 +9612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEB70C9E-5A32-AF4F-951C-2DFC686CB197}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView topLeftCell="C27" zoomScale="133" zoomScaleNormal="133" workbookViewId="0">
-      <selection activeCell="K44" sqref="K44"/>
+    <sheetView topLeftCell="A29" zoomScale="133" zoomScaleNormal="133" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9380,7 +9621,7 @@
     <col min="1" max="1" width="30.5" customWidth="1"/>
     <col min="2" max="2" width="15.6640625" customWidth="1"/>
     <col min="3" max="3" width="16.83203125" customWidth="1"/>
-    <col min="5" max="5" width="75.1640625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="75.1640625" style="9" customWidth="1"/>
     <col min="6" max="6" width="7" customWidth="1"/>
     <col min="7" max="7" width="39.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -9406,7 +9647,7 @@
         <v>306</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>6</v>
       </c>
       <c r="F4" t="s">
@@ -9432,7 +9673,7 @@
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="9" t="s">
         <v>252</v>
       </c>
       <c r="F5" t="s">
@@ -9454,7 +9695,7 @@
         <v>2020</v>
       </c>
       <c r="D6" s="2"/>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="9" t="s">
         <v>274</v>
       </c>
       <c r="F6" t="s">
@@ -9480,7 +9721,7 @@
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="9" t="s">
         <v>255</v>
       </c>
       <c r="F7" t="s">
@@ -9506,7 +9747,7 @@
         <v>202</v>
       </c>
       <c r="D8" s="2"/>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="9" t="s">
         <v>257</v>
       </c>
       <c r="F8" t="s">
@@ -9531,7 +9772,7 @@
         <v>202</v>
       </c>
       <c r="D9" s="2"/>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="9" t="s">
         <v>259</v>
       </c>
       <c r="F9" t="s">
@@ -9557,7 +9798,7 @@
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="9" t="s">
         <v>266</v>
       </c>
       <c r="F10" t="s">
@@ -9583,7 +9824,7 @@
         <v>20.2</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="9" t="s">
         <v>267</v>
       </c>
       <c r="F11" t="s">
@@ -9609,7 +9850,7 @@
         <v>20.2</v>
       </c>
       <c r="D12" s="2"/>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="9" t="s">
         <v>281</v>
       </c>
       <c r="F12" t="s">
@@ -9635,7 +9876,7 @@
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="9" t="s">
         <v>284</v>
       </c>
       <c r="F13" t="s">
@@ -9658,7 +9899,7 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="9" t="s">
         <v>284</v>
       </c>
       <c r="F14" t="s">
@@ -9681,7 +9922,7 @@
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="9" t="s">
         <v>284</v>
       </c>
       <c r="F15" t="s">
@@ -9704,7 +9945,7 @@
         <v>40.4</v>
       </c>
       <c r="D16" s="2"/>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="9" t="s">
         <v>298</v>
       </c>
       <c r="F16" t="s">
@@ -9735,7 +9976,7 @@
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="9" t="s">
         <v>295</v>
       </c>
       <c r="F18" t="s">
@@ -9770,7 +10011,7 @@
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="9" t="s">
         <v>304</v>
       </c>
       <c r="F20" t="s">
@@ -9796,7 +10037,7 @@
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="10" t="s">
+      <c r="E21" s="9" t="s">
         <v>266</v>
       </c>
       <c r="F21" t="s">
@@ -9822,7 +10063,7 @@
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="10" t="s">
+      <c r="E22" s="9" t="s">
         <v>345</v>
       </c>
       <c r="F22" t="s">
@@ -9847,7 +10088,7 @@
         <v>39370</v>
       </c>
       <c r="D23" s="2"/>
-      <c r="E23" s="10" t="s">
+      <c r="E23" s="9" t="s">
         <v>325</v>
       </c>
       <c r="F23" t="s">
@@ -9869,7 +10110,7 @@
         <v>39370.1</v>
       </c>
       <c r="D24" s="2"/>
-      <c r="E24" s="10" t="s">
+      <c r="E24" s="9" t="s">
         <v>348</v>
       </c>
       <c r="F24" t="s">
@@ -9902,7 +10143,7 @@
         <f>B18*40</f>
         <v>40000</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="E26" s="9" t="s">
         <v>355</v>
       </c>
       <c r="F26" s="5" t="s">
@@ -9926,7 +10167,7 @@
         <f>B18*45</f>
         <v>45000</v>
       </c>
-      <c r="E27" s="10" t="s">
+      <c r="E27" s="9" t="s">
         <v>352</v>
       </c>
       <c r="F27" s="5" t="s">
@@ -9950,7 +10191,7 @@
         <f xml:space="preserve"> B18*39.37</f>
         <v>39370</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="E28" s="9" t="s">
         <v>358</v>
       </c>
       <c r="F28" s="5" t="s">
@@ -9983,7 +10224,7 @@
         <f>ROUNDUP(C6/100, 0)</f>
         <v>21</v>
       </c>
-      <c r="E31" s="10" t="s">
+      <c r="E31" s="9" t="s">
         <v>311</v>
       </c>
       <c r="F31" s="5" t="s">
@@ -10028,7 +10269,7 @@
         <f>B34+B35</f>
         <v>30</v>
       </c>
-      <c r="E36" s="10" t="s">
+      <c r="E36" s="9" t="s">
         <v>359</v>
       </c>
       <c r="F36" t="s">
@@ -10049,7 +10290,7 @@
         <f>B34+B35</f>
         <v>30</v>
       </c>
-      <c r="E37" s="10" t="s">
+      <c r="E37" s="9" t="s">
         <v>360</v>
       </c>
       <c r="F37" t="s">
@@ -10070,7 +10311,7 @@
         <f>B34+B35</f>
         <v>30</v>
       </c>
-      <c r="E38" s="10" t="s">
+      <c r="E38" s="9" t="s">
         <v>361</v>
       </c>
       <c r="F38" t="s">
@@ -10118,7 +10359,7 @@
         <f>B34-B35</f>
         <v>-10</v>
       </c>
-      <c r="E42" s="10" t="s">
+      <c r="E42" s="9" t="s">
         <v>366</v>
       </c>
       <c r="F42" t="s">
@@ -10146,7 +10387,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AF83535-20BE-CA43-B82B-2F0E1F118D83}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
@@ -10601,10 +10842,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F753B85-5CB9-481B-8C77-51ACF6917C73}">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView topLeftCell="A11" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10661,7 +10902,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="10" t="s">
         <v>124</v>
       </c>
       <c r="B5">
@@ -10672,7 +10913,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="9"/>
+      <c r="A6" s="10"/>
       <c r="B6">
         <v>5</v>
       </c>
@@ -10681,7 +10922,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
+      <c r="A7" s="10"/>
       <c r="B7">
         <v>10</v>
       </c>
@@ -10690,7 +10931,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="9"/>
+      <c r="A8" s="10"/>
       <c r="B8">
         <v>1</v>
       </c>
@@ -10699,7 +10940,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="9"/>
+      <c r="A9" s="10"/>
       <c r="B9">
         <v>6</v>
       </c>
@@ -11090,6 +11331,48 @@
         <v>191</v>
       </c>
       <c r="B28">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>135</v>
+      </c>
+      <c r="C29">
+        <f>SUM(C5:C9)</f>
+        <v>24</v>
+      </c>
+      <c r="E29" t="s">
+        <v>399</v>
+      </c>
+      <c r="F29" t="s">
+        <v>393</v>
+      </c>
+      <c r="G29" t="s">
+        <v>227</v>
+      </c>
+      <c r="H29" t="s">
+        <v>59</v>
+      </c>
+      <c r="I29" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>136</v>
+      </c>
+      <c r="B30">
+        <f>SUM(C5:C9)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>136</v>
+      </c>
+      <c r="B31">
+        <f>SUM(B16:B20)</f>
         <v>24</v>
       </c>
     </row>
@@ -11104,10 +11387,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5C438D0-7759-4CC5-97B1-26C21A13DC4C}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11386,6 +11669,23 @@
         <v>242</v>
       </c>
     </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>400</v>
+      </c>
+      <c r="B18" t="s">
+        <v>393</v>
+      </c>
+      <c r="C18" t="s">
+        <v>401</v>
+      </c>
+      <c r="D18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" t="s">
+        <v>402</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11394,10 +11694,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B5E91EC-3DFF-1543-8E9D-3526C440EDB3}">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="137" zoomScaleNormal="137" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27:J29"/>
+    <sheetView zoomScale="137" zoomScaleNormal="137" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11457,7 +11757,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="10" t="s">
         <v>124</v>
       </c>
       <c r="B5">
@@ -11468,7 +11768,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="9"/>
+      <c r="A6" s="10"/>
       <c r="B6">
         <v>5</v>
       </c>
@@ -11477,7 +11777,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
+      <c r="A7" s="10"/>
       <c r="B7">
         <v>10</v>
       </c>
@@ -11486,7 +11786,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="9"/>
+      <c r="A8" s="10"/>
       <c r="B8">
         <v>1</v>
       </c>
@@ -11495,7 +11795,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="9"/>
+      <c r="A9" s="10"/>
       <c r="B9">
         <v>6</v>
       </c>
@@ -11926,6 +12226,50 @@
       </c>
       <c r="J29" t="s">
         <v>395</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>135</v>
+      </c>
+      <c r="C30">
+        <f>SUM(C5:C9)</f>
+        <v>24</v>
+      </c>
+      <c r="D30">
+        <v>23.5</v>
+      </c>
+      <c r="F30" t="s">
+        <v>403</v>
+      </c>
+      <c r="G30" t="s">
+        <v>406</v>
+      </c>
+      <c r="H30" t="s">
+        <v>404</v>
+      </c>
+      <c r="I30" t="s">
+        <v>59</v>
+      </c>
+      <c r="J30" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>136</v>
+      </c>
+      <c r="B31">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>136</v>
+      </c>
+      <c r="B32">
+        <f>SUM(C5:C9)</f>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -11939,10 +12283,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05739818-17B0-D842-BB6C-69A1E595FDFD}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12246,6 +12590,23 @@
         <v>395</v>
       </c>
     </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>405</v>
+      </c>
+      <c r="B19" t="s">
+        <v>406</v>
+      </c>
+      <c r="C19" t="s">
+        <v>407</v>
+      </c>
+      <c r="D19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" t="s">
+        <v>367</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel/TestModeKey.xlsx
+++ b/excel/TestModeKey.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrew/git/pysheetgrader-core/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F7ABE01-0897-9F4E-BE0B-9B004A539666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF6DDD8-D5C7-F046-9295-E07FFE7B5F6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="14140" tabRatio="883" activeTab="2" xr2:uid="{6E72627C-1CB6-4848-9B50-C1295434D515}"/>
   </bookViews>
@@ -6165,7 +6165,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="410">
   <si>
     <t>Number</t>
   </si>
@@ -7310,9 +7310,6 @@
     <t>Const14</t>
   </si>
   <si>
-    <t>Cell should have been graded correct with alt cell - orig cell correct and matches alt cell too! Possible POSSIBLE BUG - test made to fail to force checking double score when orig and alt cell have the same value!</t>
-  </si>
-  <si>
     <t>T-Constant-AltCell-BothMatch-CheckDblScore-FocedToFAIL</t>
   </si>
   <si>
@@ -7392,6 +7389,12 @@
   </si>
   <si>
     <t>Expected-Score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cell should have been graded correct with alt cell - orig cell correct and matches alt cell too! </t>
+  </si>
+  <si>
+    <t>Cell should have been graded correct with alt cell - orig cell correct and matches alt cell too!</t>
   </si>
 </sst>
 </file>
@@ -8797,8 +8800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A103586-2C0E-0748-80AF-98E299C769E5}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="C12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9137,13 +9140,13 @@
         <v>91</v>
       </c>
       <c r="G17" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I17" t="s">
-        <v>381</v>
+        <v>408</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -9223,7 +9226,7 @@
         <v>59</v>
       </c>
       <c r="I21" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -9235,19 +9238,19 @@
         <v>39370</v>
       </c>
       <c r="E22" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>309</v>
       </c>
       <c r="G22" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H22" t="s">
         <v>59</v>
       </c>
       <c r="I22" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
   </sheetData>
@@ -9262,7 +9265,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9292,7 +9295,7 @@
         <v>57</v>
       </c>
       <c r="G1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -9509,13 +9512,13 @@
         <v>91</v>
       </c>
       <c r="C12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D12" t="s">
         <v>59</v>
       </c>
       <c r="E12" t="s">
-        <v>381</v>
+        <v>409</v>
       </c>
       <c r="G12">
         <v>1.5</v>
@@ -9575,7 +9578,7 @@
         <v>59</v>
       </c>
       <c r="E15" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G15">
         <v>1.5</v>
@@ -9583,19 +9586,19 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>309</v>
       </c>
       <c r="C16" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D16" t="s">
         <v>59</v>
       </c>
       <c r="E16" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G16">
         <v>1.5</v>
@@ -11287,7 +11290,7 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F26" t="s">
         <v>179</v>
@@ -11311,7 +11314,7 @@
         <v>24</v>
       </c>
       <c r="E27" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F27" t="s">
         <v>194</v>
@@ -11343,10 +11346,10 @@
         <v>24</v>
       </c>
       <c r="E29" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F29" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G29" t="s">
         <v>227</v>
@@ -11671,19 +11674,19 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>399</v>
+      </c>
+      <c r="B18" t="s">
+        <v>392</v>
+      </c>
+      <c r="C18" t="s">
         <v>400</v>
-      </c>
-      <c r="B18" t="s">
-        <v>393</v>
-      </c>
-      <c r="C18" t="s">
-        <v>401</v>
       </c>
       <c r="D18" t="s">
         <v>59</v>
       </c>
       <c r="E18" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
   </sheetData>
@@ -11815,7 +11818,7 @@
         <v>10.4</v>
       </c>
       <c r="F10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G10" t="s">
         <v>42</v>
@@ -12110,7 +12113,7 @@
         <v>1023</v>
       </c>
       <c r="F24" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G24" t="s">
         <v>174</v>
@@ -12188,13 +12191,13 @@
         <v>194</v>
       </c>
       <c r="H27" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="I27" t="s">
         <v>60</v>
       </c>
       <c r="J27" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
@@ -12213,19 +12216,19 @@
         <v>1</v>
       </c>
       <c r="F29" t="s">
+        <v>391</v>
+      </c>
+      <c r="G29" t="s">
         <v>392</v>
       </c>
-      <c r="G29" t="s">
-        <v>393</v>
-      </c>
       <c r="H29" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I29" t="s">
         <v>60</v>
       </c>
       <c r="J29" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
@@ -12240,13 +12243,13 @@
         <v>23.5</v>
       </c>
       <c r="F30" t="s">
+        <v>402</v>
+      </c>
+      <c r="G30" t="s">
+        <v>405</v>
+      </c>
+      <c r="H30" t="s">
         <v>403</v>
-      </c>
-      <c r="G30" t="s">
-        <v>406</v>
-      </c>
-      <c r="H30" t="s">
-        <v>404</v>
       </c>
       <c r="I30" t="s">
         <v>59</v>
@@ -12564,41 +12567,41 @@
         <v>194</v>
       </c>
       <c r="C17" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D17" t="s">
         <v>60</v>
       </c>
       <c r="E17" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B18" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C18" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D18" t="s">
         <v>60</v>
       </c>
       <c r="E18" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>404</v>
+      </c>
+      <c r="B19" t="s">
         <v>405</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>406</v>
-      </c>
-      <c r="C19" t="s">
-        <v>407</v>
       </c>
       <c r="D19" t="s">
         <v>59</v>

--- a/excel/TestModeKey.xlsx
+++ b/excel/TestModeKey.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrew/git/pysheetgrader-core/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF6DDD8-D5C7-F046-9295-E07FFE7B5F6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B56BD84-008D-A640-891F-4D5A8FAC2004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="14140" tabRatio="883" activeTab="2" xr2:uid="{6E72627C-1CB6-4848-9B50-C1295434D515}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="14140" tabRatio="883" activeTab="4" xr2:uid="{6E72627C-1CB6-4848-9B50-C1295434D515}"/>
   </bookViews>
   <sheets>
     <sheet name="SheetGradingOrder" sheetId="1" r:id="rId1"/>
@@ -60,19 +60,40 @@
       <text>
         <r>
           <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">rubric:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
+            <i/>
+            <sz val="10"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>rubric</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <u/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="CERAPRO-MEDIUM"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <u/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="CERAPRO-MEDIUM"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve"> score: 1
@@ -80,9 +101,10 @@
         </r>
         <r>
           <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
+            <u/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="CERAPRO-MEDIUM"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve"> type: constant
@@ -104,9 +126,9 @@
         </r>
         <r>
           <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
+            <sz val="14"/>
+            <color rgb="FF000000"/>
+            <rFont val="Apple Braille"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve"> score: -1
@@ -6165,7 +6187,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="410">
   <si>
     <t>Number</t>
   </si>
@@ -7405,7 +7427,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7463,6 +7485,26 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="CERAPRO-MEDIUM"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Apple Braille"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -7831,13 +7873,13 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="14.33203125" customWidth="1"/>
     <col min="4" max="4" width="32.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7854,7 +7896,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7868,7 +7910,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -7882,7 +7924,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>2</v>
       </c>
@@ -7896,7 +7938,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>3</v>
       </c>
@@ -7923,12 +7965,12 @@
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7936,7 +7978,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -7947,7 +7989,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -7955,7 +7997,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -7963,7 +8005,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -7971,7 +8013,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -7979,7 +8021,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -7987,7 +8029,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -7995,7 +8037,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -8003,7 +8045,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -8030,12 +8072,12 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -8046,7 +8088,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -8057,7 +8099,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -8066,7 +8108,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -8075,7 +8117,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -8083,7 +8125,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -8092,7 +8134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -8104,7 +8146,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -8116,13 +8158,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="C10" s="1">
         <f>B6 * 39.37</f>
         <v>39370</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>23</v>
       </c>
@@ -8131,7 +8173,7 @@
         <v>2243</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
@@ -8140,7 +8182,7 @@
         <v>2245</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>56</v>
       </c>
@@ -8168,9 +8210,9 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8178,7 +8220,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8186,7 +8228,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8194,7 +8236,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8202,7 +8244,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -8210,7 +8252,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -8218,7 +8260,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -8226,7 +8268,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -8234,7 +8276,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -8256,14 +8298,14 @@
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2">
         <f t="shared" ref="A2:A9" si="0">B2+C2</f>
         <v>300</v>
@@ -8278,7 +8320,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3">
         <f t="shared" si="0"/>
         <v>300</v>
@@ -8293,7 +8335,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>300</v>
@@ -8308,7 +8350,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>300</v>
@@ -8323,7 +8365,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>300</v>
@@ -8338,7 +8380,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>300</v>
@@ -8353,7 +8395,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>300</v>
@@ -8368,7 +8410,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>300</v>
@@ -8383,7 +8425,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="F10">
         <v>8888</v>
       </c>
@@ -8402,9 +8444,9 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8412,7 +8454,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8420,7 +8462,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8428,7 +8470,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8436,7 +8478,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -8457,12 +8499,12 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -8473,7 +8515,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -8484,7 +8526,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -8493,7 +8535,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -8501,7 +8543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -8513,7 +8555,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -8521,7 +8563,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -8530,7 +8572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -8542,7 +8584,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -8554,13 +8596,13 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="C11">
         <f>B7 * 39.37</f>
         <v>39370</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -8583,9 +8625,9 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8593,7 +8635,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8601,7 +8643,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8609,7 +8651,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8617,7 +8659,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -8625,7 +8667,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -8633,7 +8675,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -8641,7 +8683,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -8649,7 +8691,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -8657,7 +8699,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -8679,13 +8721,13 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="17.1640625" customWidth="1"/>
     <col min="2" max="2" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -8696,7 +8738,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -8707,7 +8749,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -8716,7 +8758,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -8725,7 +8767,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -8733,7 +8775,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -8742,7 +8784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -8754,7 +8796,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -8766,13 +8808,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="C10">
         <f xml:space="preserve"> B6 * 39.37</f>
         <v>39370</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>46</v>
       </c>
@@ -8780,7 +8822,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>44</v>
       </c>
@@ -8800,11 +8842,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A103586-2C0E-0748-80AF-98E299C769E5}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView topLeftCell="C12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="17.1640625" customWidth="1"/>
     <col min="2" max="2" width="18.5" customWidth="1"/>
@@ -8816,17 +8858,17 @@
     <col min="8" max="8" width="14.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -8853,7 +8895,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -8878,7 +8920,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -8903,7 +8945,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -8929,7 +8971,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -8954,7 +8996,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -8980,7 +9022,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>82</v>
       </c>
@@ -9006,12 +9048,12 @@
         <v>113</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -9036,7 +9078,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -9062,7 +9104,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -9088,7 +9130,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -9114,7 +9156,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>65</v>
       </c>
@@ -9124,7 +9166,7 @@
       </c>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -9149,7 +9191,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
         <v>65</v>
       </c>
@@ -9157,7 +9199,7 @@
         <v>39370.1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -9181,7 +9223,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -9205,7 +9247,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -9229,7 +9271,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -9264,18 +9306,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71EABA77-C8A8-0247-A6AC-2452B8B329D1}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <cols>
     <col min="3" max="3" width="40.1640625" customWidth="1"/>
     <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="71.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9298,7 +9340,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>95</v>
       </c>
@@ -9318,7 +9360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>96</v>
       </c>
@@ -9338,7 +9380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>97</v>
       </c>
@@ -9361,7 +9403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>98</v>
       </c>
@@ -9381,7 +9423,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>99</v>
       </c>
@@ -9401,7 +9443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>100</v>
       </c>
@@ -9424,7 +9466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>101</v>
       </c>
@@ -9444,7 +9486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>102</v>
       </c>
@@ -9464,7 +9506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>103</v>
       </c>
@@ -9484,7 +9526,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>104</v>
       </c>
@@ -9504,7 +9546,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>105</v>
       </c>
@@ -9524,7 +9566,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>106</v>
       </c>
@@ -9544,7 +9586,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>107</v>
       </c>
@@ -9564,7 +9606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>380</v>
       </c>
@@ -9584,7 +9626,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>384</v>
       </c>
@@ -9615,11 +9657,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEB70C9E-5A32-AF4F-951C-2DFC686CB197}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScale="133" zoomScaleNormal="133" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScale="133" zoomScaleNormal="133" workbookViewId="0">
       <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="30.5" customWidth="1"/>
     <col min="2" max="2" width="15.6640625" customWidth="1"/>
@@ -9629,17 +9671,17 @@
     <col min="7" max="7" width="39.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="34">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -9666,7 +9708,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="17">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -9689,7 +9731,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="17">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -9714,7 +9756,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="17">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -9740,7 +9782,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="17">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -9766,7 +9808,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="17">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -9791,7 +9833,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="17">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -9817,7 +9859,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="17">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -9843,7 +9885,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="17">
       <c r="A12" t="s">
         <v>82</v>
       </c>
@@ -9869,7 +9911,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="17">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -9892,7 +9934,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="17">
       <c r="A14" t="s">
         <v>290</v>
       </c>
@@ -9915,7 +9957,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="17">
       <c r="A15" t="s">
         <v>289</v>
       </c>
@@ -9938,7 +9980,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="17">
       <c r="A16" t="s">
         <v>300</v>
       </c>
@@ -9964,12 +10006,12 @@
         <v>302</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="17">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -9995,7 +10037,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -10004,7 +10046,7 @@
       </c>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="17">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -10030,7 +10072,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="17">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -10056,7 +10098,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="17">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -10082,7 +10124,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="17">
       <c r="A23" t="s">
         <v>65</v>
       </c>
@@ -10104,7 +10146,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="17">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -10129,7 +10171,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
         <v>65</v>
       </c>
@@ -10138,7 +10180,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="17">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -10162,7 +10204,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="17">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -10186,7 +10228,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="17">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -10210,7 +10252,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
         <v>65</v>
       </c>
@@ -10219,7 +10261,7 @@
         <v>38000</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" ht="17">
       <c r="A31" t="s">
         <v>269</v>
       </c>
@@ -10243,12 +10285,12 @@
         <v>314</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9">
       <c r="A34" t="s">
         <v>331</v>
       </c>
@@ -10256,7 +10298,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9">
       <c r="A35" t="s">
         <v>332</v>
       </c>
@@ -10264,7 +10306,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" ht="17">
       <c r="A36" t="s">
         <v>333</v>
       </c>
@@ -10285,7 +10327,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" ht="17">
       <c r="A37" t="s">
         <v>334</v>
       </c>
@@ -10306,7 +10348,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" ht="17">
       <c r="A38" t="s">
         <v>335</v>
       </c>
@@ -10327,7 +10369,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9">
       <c r="A39" t="s">
         <v>328</v>
       </c>
@@ -10336,7 +10378,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9">
       <c r="A40" t="s">
         <v>329</v>
       </c>
@@ -10345,7 +10387,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9">
       <c r="A41" t="s">
         <v>330</v>
       </c>
@@ -10354,7 +10396,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" ht="34">
       <c r="A42" t="s">
         <v>342</v>
       </c>
@@ -10390,16 +10432,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AF83535-20BE-CA43-B82B-2F0E1F118D83}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <cols>
     <col min="3" max="3" width="37.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10415,8 +10457,11 @@
       <c r="E1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>261</v>
       </c>
@@ -10432,7 +10477,7 @@
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>262</v>
       </c>
@@ -10449,7 +10494,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>263</v>
       </c>
@@ -10466,7 +10511,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>264</v>
       </c>
@@ -10483,7 +10528,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>270</v>
       </c>
@@ -10500,7 +10545,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>271</v>
       </c>
@@ -10517,7 +10562,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>280</v>
       </c>
@@ -10534,7 +10579,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>282</v>
       </c>
@@ -10551,7 +10596,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>285</v>
       </c>
@@ -10565,7 +10610,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>291</v>
       </c>
@@ -10579,7 +10624,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>292</v>
       </c>
@@ -10593,7 +10638,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>303</v>
       </c>
@@ -10610,7 +10655,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>315</v>
       </c>
@@ -10627,7 +10672,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>316</v>
       </c>
@@ -10644,7 +10689,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>317</v>
       </c>
@@ -10661,7 +10706,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>318</v>
       </c>
@@ -10678,7 +10723,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>319</v>
       </c>
@@ -10692,7 +10737,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>320</v>
       </c>
@@ -10709,7 +10754,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>321</v>
       </c>
@@ -10726,7 +10771,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>322</v>
       </c>
@@ -10743,7 +10788,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>323</v>
       </c>
@@ -10760,7 +10805,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>326</v>
       </c>
@@ -10777,7 +10822,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>339</v>
       </c>
@@ -10791,7 +10836,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>340</v>
       </c>
@@ -10805,7 +10850,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>341</v>
       </c>
@@ -10819,7 +10864,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>344</v>
       </c>
@@ -10830,10 +10875,13 @@
         <v>365</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E27" t="s">
         <v>367</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -10847,11 +10895,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F753B85-5CB9-481B-8C77-51ACF6917C73}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
       <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="24.5" customWidth="1"/>
     <col min="2" max="2" width="14.1640625" customWidth="1"/>
@@ -10864,17 +10912,17 @@
     <col min="9" max="9" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="51">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -10904,7 +10952,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" s="10" t="s">
         <v>124</v>
       </c>
@@ -10915,7 +10963,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6" s="10"/>
       <c r="B6">
         <v>5</v>
@@ -10924,7 +10972,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7" s="10"/>
       <c r="B7">
         <v>10</v>
@@ -10933,7 +10981,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8" s="10"/>
       <c r="B8">
         <v>1</v>
@@ -10942,7 +10990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9" s="10"/>
       <c r="B9">
         <v>6</v>
@@ -10951,7 +10999,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>185</v>
       </c>
@@ -10972,7 +11020,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>185</v>
       </c>
@@ -10993,7 +11041,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>173</v>
       </c>
@@ -11014,7 +11062,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
         <v>173</v>
       </c>
@@ -11035,7 +11083,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>125</v>
       </c>
@@ -11056,7 +11104,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
         <v>125</v>
       </c>
@@ -11077,7 +11125,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>125</v>
       </c>
@@ -11098,7 +11146,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
         <v>125</v>
       </c>
@@ -11122,7 +11170,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
         <v>135</v>
       </c>
@@ -11146,7 +11194,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>136</v>
       </c>
@@ -11155,7 +11203,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
         <v>135</v>
       </c>
@@ -11179,7 +11227,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
         <v>136</v>
       </c>
@@ -11188,7 +11236,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
         <v>141</v>
       </c>
@@ -11212,7 +11260,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
         <v>141</v>
       </c>
@@ -11236,7 +11284,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
         <v>141</v>
       </c>
@@ -11257,7 +11305,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
         <v>141</v>
       </c>
@@ -11281,7 +11329,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
         <v>125</v>
       </c>
@@ -11305,7 +11353,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
         <v>135</v>
       </c>
@@ -11329,7 +11377,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
         <v>191</v>
       </c>
@@ -11337,7 +11385,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
         <v>135</v>
       </c>
@@ -11361,7 +11409,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
         <v>136</v>
       </c>
@@ -11370,7 +11418,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
         <v>136</v>
       </c>
@@ -11396,14 +11444,14 @@
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <cols>
     <col min="3" max="3" width="43.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.33203125" customWidth="1"/>
     <col min="5" max="5" width="33.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11424,7 +11472,7 @@
       </c>
       <c r="G1" s="6"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>199</v>
       </c>
@@ -11438,7 +11486,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>201</v>
       </c>
@@ -11452,7 +11500,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>202</v>
       </c>
@@ -11466,7 +11514,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>203</v>
       </c>
@@ -11480,7 +11528,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>217</v>
       </c>
@@ -11494,7 +11542,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>218</v>
       </c>
@@ -11508,7 +11556,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>221</v>
       </c>
@@ -11522,7 +11570,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>224</v>
       </c>
@@ -11539,7 +11587,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>228</v>
       </c>
@@ -11556,7 +11604,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>231</v>
       </c>
@@ -11573,7 +11621,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>234</v>
       </c>
@@ -11590,7 +11638,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>244</v>
       </c>
@@ -11607,7 +11655,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>245</v>
       </c>
@@ -11621,7 +11669,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>246</v>
       </c>
@@ -11638,7 +11686,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>247</v>
       </c>
@@ -11655,7 +11703,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>248</v>
       </c>
@@ -11672,7 +11720,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>399</v>
       </c>
@@ -11703,7 +11751,7 @@
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="24.5" customWidth="1"/>
     <col min="2" max="2" width="14.1640625" customWidth="1"/>
@@ -11716,17 +11764,17 @@
     <col min="10" max="10" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -11759,7 +11807,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11">
       <c r="A5" s="10" t="s">
         <v>124</v>
       </c>
@@ -11770,7 +11818,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11">
       <c r="A6" s="10"/>
       <c r="B6">
         <v>5</v>
@@ -11779,7 +11827,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11">
       <c r="A7" s="10"/>
       <c r="B7">
         <v>10</v>
@@ -11788,7 +11836,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11">
       <c r="A8" s="10"/>
       <c r="B8">
         <v>1</v>
@@ -11797,7 +11845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11">
       <c r="A9" s="10"/>
       <c r="B9">
         <v>6</v>
@@ -11806,7 +11854,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>185</v>
       </c>
@@ -11830,7 +11878,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>185</v>
       </c>
@@ -11851,7 +11899,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>173</v>
       </c>
@@ -11872,7 +11920,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>173</v>
       </c>
@@ -11893,7 +11941,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
         <v>125</v>
       </c>
@@ -11917,7 +11965,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>125</v>
       </c>
@@ -11941,7 +11989,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
         <v>125</v>
       </c>
@@ -11962,7 +12010,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
         <v>125</v>
       </c>
@@ -11986,7 +12034,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
         <v>135</v>
       </c>
@@ -12010,7 +12058,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
         <v>136</v>
       </c>
@@ -12019,7 +12067,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
         <v>135</v>
       </c>
@@ -12043,7 +12091,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
         <v>136</v>
       </c>
@@ -12052,7 +12100,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
         <v>141</v>
       </c>
@@ -12076,7 +12124,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
         <v>141</v>
       </c>
@@ -12100,7 +12148,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10">
       <c r="A24" t="s">
         <v>141</v>
       </c>
@@ -12128,7 +12176,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
         <v>141</v>
       </c>
@@ -12152,7 +12200,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10">
       <c r="A26" t="s">
         <v>125</v>
       </c>
@@ -12176,7 +12224,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10">
       <c r="A27" t="s">
         <v>135</v>
       </c>
@@ -12200,7 +12248,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10">
       <c r="A28" t="s">
         <v>191</v>
       </c>
@@ -12208,7 +12256,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10">
       <c r="A29" t="s">
         <v>135</v>
       </c>
@@ -12231,7 +12279,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10">
       <c r="A30" t="s">
         <v>135</v>
       </c>
@@ -12258,7 +12306,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10">
       <c r="A31" t="s">
         <v>136</v>
       </c>
@@ -12266,7 +12314,7 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10">
       <c r="A32" t="s">
         <v>136</v>
       </c>
@@ -12292,7 +12340,7 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="38.6640625" bestFit="1" customWidth="1"/>
@@ -12302,7 +12350,7 @@
     <col min="8" max="8" width="24.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12322,7 +12370,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>158</v>
       </c>
@@ -12339,7 +12387,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>159</v>
       </c>
@@ -12353,7 +12401,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>160</v>
       </c>
@@ -12367,7 +12415,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>161</v>
       </c>
@@ -12381,7 +12429,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>162</v>
       </c>
@@ -12395,7 +12443,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>163</v>
       </c>
@@ -12409,7 +12457,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>164</v>
       </c>
@@ -12423,7 +12471,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>165</v>
       </c>
@@ -12440,7 +12488,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>166</v>
       </c>
@@ -12457,7 +12505,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>167</v>
       </c>
@@ -12474,7 +12522,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>168</v>
       </c>
@@ -12491,7 +12539,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>169</v>
       </c>
@@ -12508,7 +12556,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>176</v>
       </c>
@@ -12525,7 +12573,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>180</v>
       </c>
@@ -12542,7 +12590,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>181</v>
       </c>
@@ -12559,7 +12607,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>196</v>
       </c>
@@ -12576,7 +12624,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>397</v>
       </c>
@@ -12593,7 +12641,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>404</v>
       </c>

--- a/excel/TestModeKey.xlsx
+++ b/excel/TestModeKey.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrew/git/pysheetgrader-core/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B56BD84-008D-A640-891F-4D5A8FAC2004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C2829E1-9875-1544-97E2-F695BAFD1F13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="14140" tabRatio="883" activeTab="4" xr2:uid="{6E72627C-1CB6-4848-9B50-C1295434D515}"/>
+    <workbookView xWindow="-20" yWindow="460" windowWidth="33600" windowHeight="14140" tabRatio="883" activeTab="1" xr2:uid="{6E72627C-1CB6-4848-9B50-C1295434D515}"/>
   </bookViews>
   <sheets>
     <sheet name="SheetGradingOrder" sheetId="1" r:id="rId1"/>
@@ -960,6 +960,70 @@
         </r>
       </text>
     </comment>
+    <comment ref="B23" authorId="0" shapeId="0" xr:uid="{EDBF3777-7896-C841-AFBE-B4492B596269}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">rubric:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> score: 1.5
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> type: constant
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> delta: 0.1
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">alt_cells:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> - B18
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -6187,7 +6251,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="411">
   <si>
     <t>Number</t>
   </si>
@@ -7417,6 +7481,9 @@
   </si>
   <si>
     <t>Cell should have been graded correct with alt cell - orig cell correct and matches alt cell too!</t>
+  </si>
+  <si>
+    <t>T-Constant-MultiAltCells-Delta-OneAltCellMatch-NoForm</t>
   </si>
 </sst>
 </file>
@@ -8840,10 +8907,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A103586-2C0E-0748-80AF-98E299C769E5}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -8900,6 +8967,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
+        <f>2020+0</f>
         <v>2020</v>
       </c>
       <c r="C5" s="2"/>
@@ -9196,6 +9264,7 @@
         <v>65</v>
       </c>
       <c r="B18" s="5">
+        <f>39370.1+0</f>
         <v>39370.1</v>
       </c>
     </row>
@@ -9292,6 +9361,30 @@
         <v>59</v>
       </c>
       <c r="I22" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="4">
+        <f xml:space="preserve"> B12*39.37</f>
+        <v>39370</v>
+      </c>
+      <c r="E23" t="s">
+        <v>382</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="G23" t="s">
+        <v>383</v>
+      </c>
+      <c r="H23" t="s">
+        <v>59</v>
+      </c>
+      <c r="I23" t="s">
         <v>385</v>
       </c>
     </row>
@@ -9304,10 +9397,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71EABA77-C8A8-0247-A6AC-2452B8B329D1}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -9643,6 +9736,26 @@
         <v>385</v>
       </c>
       <c r="G16">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>384</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C17" t="s">
+        <v>410</v>
+      </c>
+      <c r="D17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" t="s">
+        <v>385</v>
+      </c>
+      <c r="G17">
         <v>1.5</v>
       </c>
     </row>
@@ -10432,7 +10545,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AF83535-20BE-CA43-B82B-2F0E1F118D83}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>

--- a/excel/TestModeKey.xlsx
+++ b/excel/TestModeKey.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrew/git/pysheetgrader-core/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrew/git/pysheetgrader/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C2829E1-9875-1544-97E2-F695BAFD1F13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D540FF8-5C62-8D4E-A1F2-52ABB7F30A83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="460" windowWidth="33600" windowHeight="14140" tabRatio="883" activeTab="1" xr2:uid="{6E72627C-1CB6-4848-9B50-C1295434D515}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="14140" tabRatio="883" activeTab="2" xr2:uid="{6E72627C-1CB6-4848-9B50-C1295434D515}"/>
   </bookViews>
   <sheets>
     <sheet name="SheetGradingOrder" sheetId="1" r:id="rId1"/>
@@ -6251,7 +6251,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="410">
   <si>
     <t>Number</t>
   </si>
@@ -7481,9 +7481,6 @@
   </si>
   <si>
     <t>Cell should have been graded correct with alt cell - orig cell correct and matches alt cell too!</t>
-  </si>
-  <si>
-    <t>T-Constant-MultiAltCells-Delta-OneAltCellMatch-NoForm</t>
   </si>
 </sst>
 </file>
@@ -8909,8 +8906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A103586-2C0E-0748-80AF-98E299C769E5}">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -9399,8 +9396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71EABA77-C8A8-0247-A6AC-2452B8B329D1}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -9739,25 +9736,8 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
-      <c r="A17" t="s">
-        <v>384</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C17" t="s">
-        <v>410</v>
-      </c>
-      <c r="D17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E17" t="s">
-        <v>385</v>
-      </c>
-      <c r="G17">
-        <v>1.5</v>
-      </c>
+    <row r="17" spans="2:2">
+      <c r="B17" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>

--- a/excel/TestModeKey.xlsx
+++ b/excel/TestModeKey.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrew/git/pysheetgrader-core/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrew/git/pysheetgrader/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF6DDD8-D5C7-F046-9295-E07FFE7B5F6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D16A08-DFE4-8442-9487-EF91FBD09F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="14140" tabRatio="883" activeTab="2" xr2:uid="{6E72627C-1CB6-4848-9B50-C1295434D515}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18500" tabRatio="883" activeTab="1" xr2:uid="{6E72627C-1CB6-4848-9B50-C1295434D515}"/>
   </bookViews>
   <sheets>
     <sheet name="SheetGradingOrder" sheetId="1" r:id="rId1"/>
@@ -938,6 +938,39 @@
         </r>
       </text>
     </comment>
+    <comment ref="B23" authorId="0" shapeId="0" xr:uid="{90A266DE-1F13-114E-8580-871F1DC665EE}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">rubric:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> score: 1
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> type: python</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -6165,7 +6198,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="415">
   <si>
     <t>Number</t>
   </si>
@@ -7395,6 +7428,24 @@
   </si>
   <si>
     <t>Cell should have been graded correct with alt cell - orig cell correct and matches alt cell too!</t>
+  </si>
+  <si>
+    <t>Const16</t>
+  </si>
+  <si>
+    <t>Idk</t>
+  </si>
+  <si>
+    <t>T-Python</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t>def cell_builtin():
+    print(self.key_sheet_compute[key_coord].value)
+    return 1</t>
   </si>
 </sst>
 </file>
@@ -7486,7 +7537,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -7509,6 +7560,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -8798,10 +8852,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A103586-2C0E-0748-80AF-98E299C769E5}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView topLeftCell="C12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9253,6 +9307,17 @@
         <v>385</v>
       </c>
     </row>
+    <row r="23" spans="1:9" ht="102" x14ac:dyDescent="0.2">
+      <c r="B23" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="C23" s="9"/>
+    </row>
+    <row r="24" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="B24" s="9" t="s">
+        <v>413</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -9262,10 +9327,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71EABA77-C8A8-0247-A6AC-2452B8B329D1}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9602,6 +9667,26 @@
       </c>
       <c r="G16">
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>410</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C17" t="s">
+        <v>412</v>
+      </c>
+      <c r="D17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" t="s">
+        <v>411</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/excel/TestModeKey.xlsx
+++ b/excel/TestModeKey.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrew/git/pysheetgrader/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D540FF8-5C62-8D4E-A1F2-52ABB7F30A83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A35C5198-2DC9-F348-A04F-3050B839B59F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="14140" tabRatio="883" activeTab="2" xr2:uid="{6E72627C-1CB6-4848-9B50-C1295434D515}"/>
   </bookViews>
@@ -1024,6 +1024,72 @@
         </r>
       </text>
     </comment>
+    <comment ref="B24" authorId="0" shapeId="0" xr:uid="{B9062C4A-897A-7F42-B2A7-E06C7C749395}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">rubric:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> score: 1
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> type: assertion</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B25" authorId="0" shapeId="0" xr:uid="{9675D975-E199-954B-91BF-FA9C32B67348}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">rubric:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> score: 1
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> type: assertion</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -6251,7 +6317,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="417">
   <si>
     <t>Number</t>
   </si>
@@ -7481,6 +7547,27 @@
   </si>
   <si>
     <t>Cell should have been graded correct with alt cell - orig cell correct and matches alt cell too!</t>
+  </si>
+  <si>
+    <t>Probably bug in implementation</t>
+  </si>
+  <si>
+    <t>$B5 &gt; $C7</t>
+  </si>
+  <si>
+    <t>$B5 &gt; $C7 if $B5 != $B6 else $C8 &gt;= $C7</t>
+  </si>
+  <si>
+    <t>Assertion1</t>
+  </si>
+  <si>
+    <t>T-Assertion</t>
+  </si>
+  <si>
+    <t>Assertion2</t>
+  </si>
+  <si>
+    <t>T-Assertion-2</t>
   </si>
 </sst>
 </file>
@@ -8904,10 +8991,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A103586-2C0E-0748-80AF-98E299C769E5}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -9385,6 +9472,19 @@
         <v>385</v>
       </c>
     </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="B25" s="4" t="s">
+        <v>412</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -9394,10 +9494,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71EABA77-C8A8-0247-A6AC-2452B8B329D1}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -9736,8 +9836,45 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="5"/>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>413</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C17" t="s">
+        <v>414</v>
+      </c>
+      <c r="D17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" t="s">
+        <v>410</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>415</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C18" t="s">
+        <v>416</v>
+      </c>
+      <c r="D18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" t="s">
+        <v>410</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>

--- a/excel/TestModeKey.xlsx
+++ b/excel/TestModeKey.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrew/git/pysheetgrader/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A35C5198-2DC9-F348-A04F-3050B839B59F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A77F14D8-8921-8442-9B1E-5C9C10FA4A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="14140" tabRatio="883" activeTab="2" xr2:uid="{6E72627C-1CB6-4848-9B50-C1295434D515}"/>
   </bookViews>
@@ -130,6 +130,7 @@
             <color rgb="FF000000"/>
             <rFont val="Apple Braille"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve"> score: -1
 </t>
@@ -1076,17 +1077,27 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> score: 1
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> type: assertion</t>
+          <t xml:space="preserve"> score: -1
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> type: assertion
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> grading: negative</t>
         </r>
       </text>
     </comment>
@@ -7555,9 +7566,6 @@
     <t>$B5 &gt; $C7</t>
   </si>
   <si>
-    <t>$B5 &gt; $C7 if $B5 != $B6 else $C8 &gt;= $C7</t>
-  </si>
-  <si>
     <t>Assertion1</t>
   </si>
   <si>
@@ -7568,6 +7576,9 @@
   </si>
   <si>
     <t>T-Assertion-2</t>
+  </si>
+  <si>
+    <t>$B5 &gt; $C7 if $B5 != $B6 else $C8 &lt;= $C7</t>
   </si>
 </sst>
 </file>
@@ -7656,6 +7667,7 @@
       <color rgb="FF000000"/>
       <name val="Apple Braille"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -8993,7 +9005,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A103586-2C0E-0748-80AF-98E299C769E5}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
@@ -9482,7 +9494,7 @@
     </row>
     <row r="25" spans="1:9">
       <c r="B25" s="4" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
     </row>
   </sheetData>
@@ -9497,7 +9509,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -9838,13 +9850,13 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>174</v>
       </c>
       <c r="C17" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D17" t="s">
         <v>59</v>
@@ -9858,22 +9870,22 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>178</v>
       </c>
       <c r="C18" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E18" t="s">
         <v>410</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/excel/TestModeKey.xlsx
+++ b/excel/TestModeKey.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrew/git/pysheetgrader/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A77F14D8-8921-8442-9B1E-5C9C10FA4A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A5C73A7-4E63-5D42-97DF-E41BCD7B45DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="14140" tabRatio="883" activeTab="2" xr2:uid="{6E72627C-1CB6-4848-9B50-C1295434D515}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="14140" tabRatio="883" activeTab="8" xr2:uid="{6E72627C-1CB6-4848-9B50-C1295434D515}"/>
   </bookViews>
   <sheets>
     <sheet name="SheetGradingOrder" sheetId="1" r:id="rId1"/>
@@ -4894,7 +4894,16 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve"> type: check
- result: D30
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> result: D30
 </t>
         </r>
         <r>
@@ -4925,6 +4934,58 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve"> - B32</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B33" authorId="0" shapeId="0" xr:uid="{0B0D2170-8B28-6241-81AA-D1B1017D832A}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>rubric:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> score: 1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> type: check
+ parse_excel: true</t>
         </r>
       </text>
     </comment>
@@ -6328,7 +6389,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="422">
   <si>
     <t>Number</t>
   </si>
@@ -7579,6 +7640,21 @@
   </si>
   <si>
     <t>$B5 &gt; $C7 if $B5 != $B6 else $C8 &lt;= $C7</t>
+  </si>
+  <si>
+    <t>parse via excel builtin</t>
+  </si>
+  <si>
+    <t>Check19</t>
+  </si>
+  <si>
+    <t>T-Check-XL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUG: Probably implementation bug </t>
+  </si>
+  <si>
+    <t>B33</t>
   </si>
 </sst>
 </file>
@@ -9508,7 +9584,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71EABA77-C8A8-0247-A6AC-2452B8B329D1}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -11987,10 +12063,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B5E91EC-3DFF-1543-8E9D-3526C440EDB3}">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView zoomScale="137" zoomScaleNormal="137" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView topLeftCell="A23" zoomScale="137" zoomScaleNormal="137" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -12565,6 +12641,15 @@
         <v>24</v>
       </c>
     </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>417</v>
+      </c>
+      <c r="B33" t="b">
+        <f>B11  &gt;= B12</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A5:A9"/>
@@ -12576,10 +12661,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05739818-17B0-D842-BB6C-69A1E595FDFD}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -12900,6 +12985,23 @@
         <v>367</v>
       </c>
     </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>418</v>
+      </c>
+      <c r="B20" t="s">
+        <v>421</v>
+      </c>
+      <c r="C20" t="s">
+        <v>419</v>
+      </c>
+      <c r="D20" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" t="s">
+        <v>420</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel/TestModeKey.xlsx
+++ b/excel/TestModeKey.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrew/git/pysheetgrader/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A5C73A7-4E63-5D42-97DF-E41BCD7B45DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC45853F-D24B-D243-8E1E-3E9AC0F3EAFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="14140" tabRatio="883" activeTab="8" xr2:uid="{6E72627C-1CB6-4848-9B50-C1295434D515}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="14140" tabRatio="883" activeTab="5" xr2:uid="{6E72627C-1CB6-4848-9B50-C1295434D515}"/>
   </bookViews>
   <sheets>
     <sheet name="SheetGradingOrder" sheetId="1" r:id="rId1"/>
@@ -3737,6 +3737,84 @@
         </r>
       </text>
     </comment>
+    <comment ref="B32" authorId="0" shapeId="0" xr:uid="{126189A7-61EC-1841-B9E4-152E6EA3345B}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>rubric:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> score: 1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> type: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>relative</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> parse_excel: true</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -4985,7 +5063,17 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve"> type: check
- parse_excel: true</t>
+ parse_excel: true
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> result: D33</t>
         </r>
       </text>
     </comment>
@@ -6389,7 +6477,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="426">
   <si>
     <t>Number</t>
   </si>
@@ -7648,13 +7736,25 @@
     <t>Check19</t>
   </si>
   <si>
-    <t>T-Check-XL</t>
-  </si>
-  <si>
     <t xml:space="preserve">BUG: Probably implementation bug </t>
   </si>
   <si>
     <t>B33</t>
+  </si>
+  <si>
+    <t>random excel builtin</t>
+  </si>
+  <si>
+    <t>T-Check-Excel-Base</t>
+  </si>
+  <si>
+    <t>Rel18</t>
+  </si>
+  <si>
+    <t>B32</t>
+  </si>
+  <si>
+    <t>T-Relative-Excel-Length</t>
   </si>
 </sst>
 </file>
@@ -7665,7 +7765,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7744,6 +7844,11 @@
       <name val="Apple Braille"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -11211,10 +11316,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F753B85-5CB9-481B-8C77-51ACF6917C73}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -11222,7 +11327,7 @@
     <col min="1" max="1" width="24.5" customWidth="1"/>
     <col min="2" max="2" width="14.1640625" customWidth="1"/>
     <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.1640625" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
     <col min="5" max="5" width="58" customWidth="1"/>
     <col min="6" max="6" width="5.33203125" customWidth="1"/>
     <col min="7" max="7" width="43.1640625" bestFit="1" customWidth="1"/>
@@ -11743,6 +11848,15 @@
       <c r="B31">
         <f>SUM(B16:B20)</f>
         <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" t="s">
+        <v>421</v>
+      </c>
+      <c r="B32" t="b">
+        <f>C7 &gt; LEN("ABCD") - 4 + 10</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -11756,10 +11870,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5C438D0-7759-4CC5-97B1-26C21A13DC4C}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -12055,6 +12169,23 @@
         <v>401</v>
       </c>
     </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>423</v>
+      </c>
+      <c r="B19" t="s">
+        <v>424</v>
+      </c>
+      <c r="C19" t="s">
+        <v>425</v>
+      </c>
+      <c r="D19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" t="s">
+        <v>419</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12065,8 +12196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B5E91EC-3DFF-1543-8E9D-3526C440EDB3}">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="137" zoomScaleNormal="137" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView topLeftCell="A24" zoomScale="137" zoomScaleNormal="137" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -12641,13 +12772,17 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>417</v>
       </c>
       <c r="B33" t="b">
         <f>B11  &gt;= B12</f>
         <v>0</v>
+      </c>
+      <c r="D33" t="b">
+        <f>TRUE</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -12663,8 +12798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05739818-17B0-D842-BB6C-69A1E595FDFD}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -12990,16 +13125,16 @@
         <v>418</v>
       </c>
       <c r="B20" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C20" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="D20" t="s">
         <v>59</v>
       </c>
       <c r="E20" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
   </sheetData>

--- a/excel/TestModeKey.xlsx
+++ b/excel/TestModeKey.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrew/git/pysheetgrader/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC45853F-D24B-D243-8E1E-3E9AC0F3EAFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5280D728-49FF-BC46-9C52-8C541B4DBC2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="14140" tabRatio="883" activeTab="5" xr2:uid="{6E72627C-1CB6-4848-9B50-C1295434D515}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="33600" windowHeight="14140" tabRatio="883" firstSheet="11" activeTab="18" xr2:uid="{6E72627C-1CB6-4848-9B50-C1295434D515}"/>
   </bookViews>
   <sheets>
     <sheet name="SheetGradingOrder" sheetId="1" r:id="rId1"/>
@@ -30,6 +30,8 @@
     <sheet name="Test Case Samples" sheetId="12" r:id="rId15"/>
     <sheet name="Minimum Work_CheckOrder" sheetId="18" r:id="rId16"/>
     <sheet name="Minimum Work" sheetId="19" r:id="rId17"/>
+    <sheet name="Assertion" sheetId="20" r:id="rId18"/>
+    <sheet name="Assertion_CheckOrder" sheetId="22" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -5184,10 +5186,50 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">rubric:
- score: 1.5
- type: soft_formula
-alt_cells:
- - C10
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve"> score: 1.5
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve"> type: soft_formula
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">alt_cells:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve"> - C10
 </t>
         </r>
       </text>
@@ -5202,9 +5244,29 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>rubric:
- score: 2
- type: soft_formula</t>
+          <t xml:space="preserve">rubric:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve"> score: 2
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve"> type: soft_formula</t>
         </r>
       </text>
     </comment>
@@ -5218,9 +5280,29 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t>rubric:
- score: 0
- type: soft_formula</t>
+          <t xml:space="preserve">rubric:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve"> score: 0
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve"> type: soft_formula</t>
         </r>
       </text>
     </comment>
@@ -6476,8 +6558,94 @@
 </comments>
 </file>
 
+<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Ricardo Pramana Suranta</author>
+  </authors>
+  <commentList>
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{C23BFFA0-1ADC-5447-B466-90C6F2B1599E}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">rubric:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> score: 1
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> type: assertion</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{47D084CD-55BA-4048-B3BA-12120D1FAB95}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">rubric:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> score: -1
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> type: assertion
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> grading: negative</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="437">
   <si>
     <t>Number</t>
   </si>
@@ -7755,6 +7923,39 @@
   </si>
   <si>
     <t>T-Relative-Excel-Length</t>
+  </si>
+  <si>
+    <t>Assertion</t>
+  </si>
+  <si>
+    <t>T-Assertion-Positive</t>
+  </si>
+  <si>
+    <t>T-Assertion-Negative</t>
+  </si>
+  <si>
+    <t>Wrong!</t>
+  </si>
+  <si>
+    <t>See Implementation</t>
+  </si>
+  <si>
+    <t>Manual1</t>
+  </si>
+  <si>
+    <t>T-Manual</t>
+  </si>
+  <si>
+    <t>Special</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>ha terrible</t>
+  </si>
+  <si>
+    <t>you didn’t write anything</t>
   </si>
 </sst>
 </file>
@@ -8211,10 +8412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{713B2A36-CAF8-2349-917C-6D8074132DA3}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -8294,6 +8495,20 @@
       </c>
       <c r="D5" t="s">
         <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>426</v>
+      </c>
+      <c r="C6">
+        <v>-100</v>
+      </c>
+      <c r="E6" t="s">
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -9182,12 +9397,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A103586-2C0E-0748-80AF-98E299C769E5}">
-  <dimension ref="A1:I25"/>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44920D7C-554C-BE46-9AAC-8C5918ED4FFC}">
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -9241,6 +9456,282 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="B6" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="B16" s="4"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="4"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="5"/>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="C19" s="4"/>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="C20" s="4"/>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="4"/>
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="4"/>
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="4"/>
+      <c r="F23" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{375074D0-538E-1F45-B6E1-7844F13B5B8A}">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>412</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s">
+        <v>427</v>
+      </c>
+      <c r="D2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>414</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>428</v>
+      </c>
+      <c r="D3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" t="s">
+        <v>430</v>
+      </c>
+      <c r="F3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>431</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>432</v>
+      </c>
+      <c r="D4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" t="s">
+        <v>430</v>
+      </c>
+      <c r="F4" t="s">
+        <v>435</v>
+      </c>
+      <c r="G4" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>431</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>432</v>
+      </c>
+      <c r="D5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" t="s">
+        <v>430</v>
+      </c>
+      <c r="F5" t="s">
+        <v>436</v>
+      </c>
+      <c r="G5" t="s">
+        <v>434</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A103586-2C0E-0748-80AF-98E299C769E5}">
+  <dimension ref="A1:I25"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="17.1640625" customWidth="1"/>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" customWidth="1"/>
+    <col min="4" max="4" width="3.33203125" customWidth="1"/>
+    <col min="5" max="5" width="54.6640625" customWidth="1"/>
+    <col min="6" max="6" width="6.1640625" customWidth="1"/>
+    <col min="7" max="7" width="49.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2">
@@ -9690,7 +10181,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -10080,7 +10571,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEB70C9E-5A32-AF4F-951C-2DFC686CB197}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="133" zoomScaleNormal="133" workbookViewId="0">
+    <sheetView zoomScale="133" zoomScaleNormal="133" workbookViewId="0">
       <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
@@ -10856,7 +11347,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -11318,8 +11809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F753B85-5CB9-481B-8C77-51ACF6917C73}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -12196,7 +12687,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B5E91EC-3DFF-1543-8E9D-3526C440EDB3}">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScale="137" zoomScaleNormal="137" workbookViewId="0">
+    <sheetView zoomScale="137" zoomScaleNormal="137" workbookViewId="0">
       <selection activeCell="A34" sqref="A34:D34"/>
     </sheetView>
   </sheetViews>
@@ -12799,7 +13290,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection sqref="A1:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>

--- a/excel/TestModeKey.xlsx
+++ b/excel/TestModeKey.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrew/git/pysheetgrader/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF6D256B-03DF-4543-BB50-3B0379C30E56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE91766-0288-0F4D-97A0-79ED76209272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="33600" windowHeight="14140" tabRatio="883" activeTab="1" xr2:uid="{6E72627C-1CB6-4848-9B50-C1295434D515}"/>
   </bookViews>
@@ -59,6 +59,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Microsoft Office User</author>
+    <author>Andrew Colello</author>
   </authors>
   <commentList>
     <comment ref="C10" authorId="0" shapeId="0" xr:uid="{7B602929-7896-BF42-93E3-BE3403380B1F}">
@@ -189,7 +190,18 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> delta: 0.01</t>
+          <t xml:space="preserve"> delta: 0.01
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> parse_excel: true
+</t>
         </r>
       </text>
     </comment>
@@ -240,7 +252,17 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> type: relative</t>
+          <t xml:space="preserve"> type: relative
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> parse_excel: true</t>
         </r>
       </text>
     </comment>
@@ -294,6 +316,16 @@
           <t xml:space="preserve"> type: relative
 </t>
         </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> parse_excel: true
+</t>
+        </r>
       </text>
     </comment>
     <comment ref="B14" authorId="0" shapeId="0" xr:uid="{5D94E7AE-72FF-2145-9E70-FF85E8A751F1}">
@@ -346,6 +378,16 @@
           <t xml:space="preserve"> type: relative
 </t>
         </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> parse_excel: true
+</t>
+        </r>
       </text>
     </comment>
     <comment ref="C15" authorId="0" shapeId="0" xr:uid="{A214922E-AD5A-D14B-930D-07047676CE30}">
@@ -466,6 +508,35 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>parse_excel: true</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
           <t xml:space="preserve">prereq:
 </t>
         </r>
@@ -537,6 +608,16 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
+          <t xml:space="preserve"> parse_excel: true
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
           <t xml:space="preserve">prereq:
 </t>
         </r>
@@ -608,6 +689,16 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
+          <t xml:space="preserve"> parse_excel: true
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
           <t xml:space="preserve">alt_cells:
 </t>
         </r>
@@ -679,6 +770,16 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
+          <t xml:space="preserve"> parse_excel: true
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
           <t xml:space="preserve">alt_cells:
 </t>
         </r>
@@ -760,7 +861,17 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> grading: negative </t>
+          <t xml:space="preserve"> grading: negative
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> parse_excel: true </t>
         </r>
       </text>
     </comment>
@@ -831,7 +942,17 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> grading: negative</t>
+          <t xml:space="preserve"> grading: negative
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> parse_excel: true</t>
         </r>
       </text>
     </comment>
@@ -895,6 +1016,15 @@
           <t xml:space="preserve"> grading: positive
 </t>
         </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> parse_excel: true</t>
+        </r>
       </text>
     </comment>
     <comment ref="B25" authorId="0" shapeId="0" xr:uid="{42A7FAAF-5AEA-2F4F-B4D2-2991728A863C}">
@@ -954,7 +1084,17 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> delta: 0.1</t>
+          <t xml:space="preserve"> delta: 0.1
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> parse_excel: true</t>
         </r>
       </text>
     </comment>
@@ -1005,7 +1145,29 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> type: relative</t>
+          <t xml:space="preserve"> type: relative
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> parse_excel: true</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
         </r>
       </text>
     </comment>
@@ -1061,6 +1223,37 @@
         </r>
         <r>
           <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> parse_excel: true</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
             <sz val="18"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
@@ -1137,6 +1330,46 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>parse_excel: true</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
           <t xml:space="preserve">alt_cells:
 </t>
         </r>
@@ -1235,6 +1468,278 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> parse_excel: true</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B33" authorId="1" shapeId="0" xr:uid="{F3E50E7C-A817-FD4F-9E6C-D17A935025F8}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>rubric:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>score: 1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>type: relative</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>parse_excel: true</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B34" authorId="1" shapeId="0" xr:uid="{9BE889C5-C695-9244-84D5-FA4F7773AFFA}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>rubric:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> score: 1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> type: relative</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> parse_excel: true</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B35" authorId="1" shapeId="0" xr:uid="{1758D73F-B69F-054B-BCCC-FA9E809C92C2}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>rubric:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> score: 1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> type: relative</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve"> parse_excel: true</t>
         </r>
@@ -7971,7 +8476,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="491">
   <si>
     <t>Number</t>
   </si>
@@ -8330,9 +8835,6 @@
     <t>Minimum work is not satisfied!</t>
   </si>
   <si>
-    <t>RConstant</t>
-  </si>
-  <si>
     <t>Decade should be 202!</t>
   </si>
   <si>
@@ -8483,9 +8985,6 @@
     <t>Check12</t>
   </si>
   <si>
-    <t>RCheck</t>
-  </si>
-  <si>
     <t>A zero score should have been assigned to this cell</t>
   </si>
   <si>
@@ -8573,9 +9072,6 @@
     <t>Rel1</t>
   </si>
   <si>
-    <t>RRelative</t>
-  </si>
-  <si>
     <t>Rel2</t>
   </si>
   <si>
@@ -8768,9 +9264,6 @@
     <t>Formula4</t>
   </si>
   <si>
-    <t>RFormula</t>
-  </si>
-  <si>
     <t>Formula rubric with multi-prereq</t>
   </si>
   <si>
@@ -9251,9 +9744,6 @@
     <t>T-Relative-Excel-Length</t>
   </si>
   <si>
-    <t>Assertion</t>
-  </si>
-  <si>
     <t>T-Assertion-Positive</t>
   </si>
   <si>
@@ -9287,9 +9777,6 @@
     <t>$B5 &gt; $C7 and $B5 != $B6</t>
   </si>
   <si>
-    <t>Manual</t>
-  </si>
-  <si>
     <t>Assertion3</t>
   </si>
   <si>
@@ -9332,7 +9819,136 @@
     <t>XLFormula</t>
   </si>
   <si>
-    <t>MAX, IF (with NOT, AND, OR), SQRT, LN, STDEV.S, AVERAGE, SUM, ROUND, COUNTIF, CONCATENATE, VLOOKUP</t>
+    <t>XL1</t>
+  </si>
+  <si>
+    <t>T-Relative-XL-Delta-SubFormula</t>
+  </si>
+  <si>
+    <t>T-Relative-XL-Delta-Mistake-SubConst</t>
+  </si>
+  <si>
+    <t>T-Relative-XL-SubConstant</t>
+  </si>
+  <si>
+    <t>T-Relative-XL-SubFormula-Mistake</t>
+  </si>
+  <si>
+    <t>T-Relative-XL-SubFormula</t>
+  </si>
+  <si>
+    <t>T-Relative-XL-SubConstant-Mistake</t>
+  </si>
+  <si>
+    <t>T-Relative-XL-Prereq</t>
+  </si>
+  <si>
+    <t>T-Relative-XL-Prereq-Mistake-BadPrereq</t>
+  </si>
+  <si>
+    <t>T-Relative-XL-AltCell-FormulaAltCellCorrect</t>
+  </si>
+  <si>
+    <t>T-Relative-XL-AltCell-NoCellCorrect</t>
+  </si>
+  <si>
+    <t>T-Relative-XL-Negative-Delta-Mistake</t>
+  </si>
+  <si>
+    <t>T-Relative-XL-Negative-Delta</t>
+  </si>
+  <si>
+    <t>T-Relative-XL-Delta</t>
+  </si>
+  <si>
+    <t>T-Relative-XL-AltCell-ConstAltCellCorrect</t>
+  </si>
+  <si>
+    <t>T-Relative-XL-AltCell-DupeAltCellCorrect</t>
+  </si>
+  <si>
+    <t>XL2</t>
+  </si>
+  <si>
+    <t>XL3</t>
+  </si>
+  <si>
+    <t>XL4</t>
+  </si>
+  <si>
+    <t>XL5</t>
+  </si>
+  <si>
+    <t>XL6</t>
+  </si>
+  <si>
+    <t>XL7</t>
+  </si>
+  <si>
+    <t>XL8</t>
+  </si>
+  <si>
+    <t>XL9</t>
+  </si>
+  <si>
+    <t>XL10</t>
+  </si>
+  <si>
+    <t>XL11</t>
+  </si>
+  <si>
+    <t>XL12</t>
+  </si>
+  <si>
+    <t>XL14</t>
+  </si>
+  <si>
+    <t>XL13</t>
+  </si>
+  <si>
+    <t>XL15</t>
+  </si>
+  <si>
+    <t>XL16</t>
+  </si>
+  <si>
+    <t>XL17</t>
+  </si>
+  <si>
+    <t>squrt</t>
+  </si>
+  <si>
+    <t>XL18</t>
+  </si>
+  <si>
+    <t>T-Relative-XL-SQRT</t>
+  </si>
+  <si>
+    <t>avg</t>
+  </si>
+  <si>
+    <t>XL19</t>
+  </si>
+  <si>
+    <t>T-Relative-XL-AVG</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IF (with NOT, AND, OR), LN, STDEV.S,  ROUND, COUNTIF, CONCATENATE, VLOOKUP</t>
+  </si>
+  <si>
+    <t>round</t>
+  </si>
+  <si>
+    <t>XL20</t>
+  </si>
+  <si>
+    <t>B34</t>
+  </si>
+  <si>
+    <t>T-Relative-XL-ROUND</t>
+  </si>
+  <si>
+    <t>B35</t>
   </si>
 </sst>
 </file>
@@ -9343,7 +9959,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -9423,6 +10039,26 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -9445,7 +10081,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -9469,6 +10105,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9787,7 +10424,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -9810,16 +10447,13 @@
         <v>57</v>
       </c>
       <c r="E1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>119</v>
-      </c>
       <c r="C2">
         <v>1</v>
       </c>
@@ -9831,23 +10465,17 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>265</v>
-      </c>
       <c r="C3">
         <v>-100</v>
       </c>
       <c r="E3" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>200</v>
-      </c>
       <c r="C4">
         <v>1</v>
       </c>
@@ -9859,9 +10487,6 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>170</v>
-      </c>
       <c r="C5">
         <v>1</v>
       </c>
@@ -9873,28 +10498,22 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>426</v>
-      </c>
       <c r="C6">
         <v>-100</v>
       </c>
       <c r="E6" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>438</v>
-      </c>
       <c r="C7">
         <v>-100</v>
       </c>
       <c r="E7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -9902,13 +10521,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="C8">
         <v>-100</v>
       </c>
       <c r="E8" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -9939,7 +10558,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -9958,7 +10577,7 @@
         <v>68</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s">
@@ -9982,7 +10601,7 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -10029,7 +10648,7 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B10">
         <f>MAX(B5:B9)</f>
@@ -10039,13 +10658,13 @@
         <v>10.4</v>
       </c>
       <c r="F10" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="G10" t="s">
         <v>42</v>
       </c>
       <c r="H10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I10" t="s">
         <v>59</v>
@@ -10053,20 +10672,20 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C11">
         <f>MAX(C5:C9)</f>
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I11" t="s">
         <v>60</v>
@@ -10074,20 +10693,20 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B12">
         <f>B5 + B6</f>
         <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G12" t="s">
         <v>26</v>
       </c>
       <c r="H12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I12" t="s">
         <v>59</v>
@@ -10095,20 +10714,20 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C13">
         <f>C6 + C7</f>
         <v>15</v>
       </c>
       <c r="F13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I13" t="s">
         <v>60</v>
@@ -10116,7 +10735,7 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B14" t="b">
         <f>B6 &gt; B5</f>
@@ -10126,13 +10745,13 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G14" t="s">
         <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I14" t="s">
         <v>59</v>
@@ -10140,7 +10759,7 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C15" t="b">
         <f>C7  &lt; 10.5</f>
@@ -10150,13 +10769,13 @@
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I15" t="s">
         <v>60</v>
@@ -10164,20 +10783,20 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B16" t="b">
         <f>B6 + B7 &gt; B5</f>
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G16" t="s">
         <v>49</v>
       </c>
       <c r="H16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I16" t="s">
         <v>59</v>
@@ -10185,55 +10804,55 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B17" t="b">
         <f>C8 + C9 &gt; C5 - C6</f>
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G17" t="s">
         <v>91</v>
       </c>
       <c r="H17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I17" t="s">
         <v>60</v>
       </c>
       <c r="J17" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C18">
         <f>SUM(C5:C9)</f>
         <v>24</v>
       </c>
       <c r="F18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H18" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="I18" t="s">
         <v>59</v>
       </c>
       <c r="J18" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B19">
         <f>B5+B6+B7+B8+B9</f>
@@ -10242,31 +10861,31 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C20">
         <f>C7 + C9 + C6 + C5 + C8</f>
         <v>24</v>
       </c>
       <c r="F20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G20" t="s">
         <v>93</v>
       </c>
       <c r="H20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I20" t="s">
         <v>60</v>
       </c>
       <c r="J20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C21">
         <f>C7 + C9 + C6 + C5 + C8</f>
@@ -10275,55 +10894,55 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C22">
         <f>C5^C6 - C7/C9</f>
         <v>30.333333333333332</v>
       </c>
       <c r="F22" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I22" t="s">
         <v>60</v>
       </c>
       <c r="J22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B23">
         <f>B5^B7 - B8/9</f>
         <v>1023.8888888888889</v>
       </c>
       <c r="F23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H23" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I23" t="s">
         <v>59</v>
       </c>
       <c r="J23" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B24">
         <f>B5^B7 - B8</f>
@@ -10334,96 +10953,96 @@
         <v>1023</v>
       </c>
       <c r="F24" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="G24" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H24" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I24" t="s">
         <v>59</v>
       </c>
       <c r="J24" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B25" s="7">
         <f>B6^B8 - B9/B6</f>
         <v>3.8</v>
       </c>
       <c r="F25" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G25" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H25" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="I25" t="s">
         <v>59</v>
       </c>
       <c r="J25" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B26" t="b">
         <f>B6  &lt;= B7</f>
         <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G26" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H26" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I26" t="s">
         <v>59</v>
       </c>
       <c r="J26" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C27">
         <f>SUM(C5:C9)</f>
         <v>24</v>
       </c>
       <c r="F27" t="s">
+        <v>190</v>
+      </c>
+      <c r="G27" t="s">
         <v>192</v>
       </c>
-      <c r="G27" t="s">
-        <v>194</v>
-      </c>
       <c r="H27" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="I27" t="s">
         <v>60</v>
       </c>
       <c r="J27" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B28">
         <v>48</v>
@@ -10431,30 +11050,30 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C29" t="b">
         <v>1</v>
       </c>
       <c r="F29" t="s">
+        <v>387</v>
+      </c>
+      <c r="G29" t="s">
+        <v>388</v>
+      </c>
+      <c r="H29" t="s">
         <v>391</v>
-      </c>
-      <c r="G29" t="s">
-        <v>392</v>
-      </c>
-      <c r="H29" t="s">
-        <v>395</v>
       </c>
       <c r="I29" t="s">
         <v>60</v>
       </c>
       <c r="J29" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C30">
         <f>SUM(C5:C9)</f>
@@ -10464,24 +11083,24 @@
         <v>23.5</v>
       </c>
       <c r="F30" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="G30" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="H30" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="I30" t="s">
         <v>59</v>
       </c>
       <c r="J30" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B31">
         <v>23.5</v>
@@ -10489,7 +11108,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B32">
         <f>SUM(C5:C9)</f>
@@ -10498,7 +11117,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B33" t="b">
         <f>B11  &gt;= B12</f>
@@ -10558,30 +11177,30 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B2" t="s">
         <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D2" t="s">
         <v>59</v>
       </c>
       <c r="F2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D3" t="s">
         <v>60</v>
@@ -10589,13 +11208,13 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D4" t="s">
         <v>59</v>
@@ -10603,13 +11222,13 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D5" t="s">
         <v>60</v>
@@ -10617,13 +11236,13 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B6" t="s">
         <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D6" t="s">
         <v>59</v>
@@ -10631,13 +11250,13 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D7" t="s">
         <v>60</v>
@@ -10645,13 +11264,13 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B8" t="s">
         <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D8" t="s">
         <v>59</v>
@@ -10659,206 +11278,206 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B9" t="s">
         <v>91</v>
       </c>
       <c r="C9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D9" t="s">
         <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C10" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D10" t="s">
         <v>59</v>
       </c>
       <c r="E10" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B11" t="s">
         <v>93</v>
       </c>
       <c r="C11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D11" t="s">
         <v>60</v>
       </c>
       <c r="E11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D12" t="s">
         <v>60</v>
       </c>
       <c r="E12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D13" t="s">
         <v>59</v>
       </c>
       <c r="E13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B14" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C14" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D14" t="s">
         <v>59</v>
       </c>
       <c r="E14" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C15" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D15" t="s">
         <v>59</v>
       </c>
       <c r="E15" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B16" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C16" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D16" t="s">
         <v>59</v>
       </c>
       <c r="E16" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B17" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C17" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="D17" t="s">
         <v>60</v>
       </c>
       <c r="E17" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B18" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C18" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="D18" t="s">
         <v>60</v>
       </c>
       <c r="E18" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B19" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="C19" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="D19" t="s">
         <v>59</v>
       </c>
       <c r="E19" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
+        <v>414</v>
+      </c>
+      <c r="B20" t="s">
+        <v>416</v>
+      </c>
+      <c r="C20" t="s">
         <v>418</v>
-      </c>
-      <c r="B20" t="s">
-        <v>420</v>
-      </c>
-      <c r="C20" t="s">
-        <v>422</v>
       </c>
       <c r="D20" t="s">
         <v>59</v>
       </c>
       <c r="E20" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
   </sheetData>
@@ -11752,8 +12371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CFDFF2D-5588-974C-8962-7185857425AC}">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -11771,7 +12390,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -11787,13 +12406,13 @@
         <v>69</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -11810,6 +12429,9 @@
       <c r="C6">
         <v>5</v>
       </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="10"/>
@@ -11840,7 +12462,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C10">
         <f>MAX(C5:C9)</f>
@@ -11849,7 +12471,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C11">
         <f>MAX(C5:C9)</f>
@@ -11858,7 +12480,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B12">
         <f>B5 + B6</f>
@@ -11867,7 +12489,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C13">
         <f>C6 + C7</f>
@@ -11876,7 +12498,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B14" t="b">
         <f>B6 &gt; B5</f>
@@ -11885,7 +12507,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C15" t="b">
         <f>C7  &lt; 10.5</f>
@@ -11894,7 +12516,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B16" t="b">
         <f>B6 + B7 &gt; B5</f>
@@ -11903,7 +12525,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C17" t="b">
         <f>C8 + C9 &gt; C5 - C6</f>
@@ -11912,7 +12534,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C18">
         <f>SUM(C5:C9)</f>
@@ -11921,7 +12543,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B19">
         <f>SUM(B5:B9)</f>
@@ -11930,7 +12552,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C20">
         <f>C7 + C9 + C6 + C5 + C8</f>
@@ -11939,7 +12561,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C21">
         <f>C7 + C9 + C6 + C5 + C8</f>
@@ -11948,7 +12570,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C22">
         <f>C5^C6 - C7/C9</f>
@@ -11957,7 +12579,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B23">
         <f>B5^B7 - B8/9</f>
@@ -11966,7 +12588,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B24">
         <f>B5^B7 - B8</f>
@@ -11975,7 +12597,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B25" s="7">
         <f>B6^B8 - B9/B6</f>
@@ -11984,7 +12606,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B26" t="b">
         <f>B7 &gt;= B6</f>
@@ -11993,7 +12615,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C27">
         <f>SUM(C5:C9)</f>
@@ -12002,7 +12624,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B28">
         <v>24</v>
@@ -12010,7 +12632,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C29">
         <f>SUM(C5:C9)</f>
@@ -12019,7 +12641,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B30">
         <f>SUM(C5:C9)</f>
@@ -12028,7 +12650,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B31">
         <f>SUM(B16:B20)</f>
@@ -12037,16 +12659,41 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="B32" t="b">
         <f>C7 &gt; LEN("ABCD") - 4 + 10</f>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="5:5">
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>479</v>
+      </c>
+      <c r="B33" s="11">
+        <f>SQRT(D6)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>482</v>
+      </c>
+      <c r="B34">
+        <f>AVERAGE(B5:B6)</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>486</v>
+      </c>
+      <c r="B35">
+        <f>ROUND(3.5, 0)</f>
+        <v>4</v>
+      </c>
       <c r="E35" t="s">
-        <v>453</v>
+        <v>485</v>
       </c>
     </row>
   </sheetData>
@@ -12054,6 +12701,9 @@
     <mergeCell ref="A5:A9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="B34" formulaRange="1"/>
+  </ignoredErrors>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -12080,7 +12730,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -12120,41 +12770,41 @@
         <v>10</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:9">
       <c r="B6" s="4" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:9">
       <c r="B7" s="4" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:9">
       <c r="B8" s="4" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:9">
       <c r="B9" s="4" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:9">
       <c r="B10" s="4" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -12252,112 +12902,112 @@
         <v>57</v>
       </c>
       <c r="G1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B2" t="s">
         <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="D2" t="s">
         <v>59</v>
       </c>
       <c r="E2" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="D3" t="s">
         <v>60</v>
       </c>
       <c r="E3" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="F3" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="D4" t="s">
         <v>60</v>
       </c>
       <c r="E4" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="D5" t="s">
         <v>59</v>
       </c>
       <c r="E5" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="D6" t="s">
         <v>60</v>
       </c>
       <c r="E6" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="B7" t="s">
         <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="D7" t="s">
         <v>60</v>
       </c>
       <c r="E7" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
   </sheetData>
@@ -12407,53 +13057,53 @@
         <v>57</v>
       </c>
       <c r="G1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="D2" t="s">
         <v>60</v>
       </c>
       <c r="E2" t="s">
+        <v>425</v>
+      </c>
+      <c r="F2" t="s">
         <v>430</v>
       </c>
-      <c r="F2" t="s">
-        <v>435</v>
-      </c>
       <c r="G2" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="D3" t="s">
         <v>60</v>
       </c>
       <c r="E3" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="F3" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="G3" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
     </row>
   </sheetData>
@@ -12463,10 +13113,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{529BA031-6D75-6C46-BAF1-3106D5A9BED1}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -12499,13 +13149,13 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>199</v>
+        <v>447</v>
       </c>
       <c r="B2" t="s">
         <v>90</v>
       </c>
       <c r="C2" t="s">
-        <v>216</v>
+        <v>448</v>
       </c>
       <c r="D2" t="s">
         <v>59</v>
@@ -12513,27 +13163,27 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>201</v>
+        <v>463</v>
       </c>
       <c r="B3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C3" t="s">
-        <v>205</v>
+        <v>449</v>
       </c>
       <c r="D3" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>202</v>
+      <c r="A4" s="6" t="s">
+        <v>464</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>206</v>
+        <v>450</v>
       </c>
       <c r="D4" t="s">
         <v>59</v>
@@ -12541,13 +13191,13 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>203</v>
+        <v>465</v>
       </c>
       <c r="B5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C5" t="s">
-        <v>209</v>
+        <v>451</v>
       </c>
       <c r="D5" t="s">
         <v>60</v>
@@ -12555,13 +13205,13 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>217</v>
+        <v>466</v>
       </c>
       <c r="B6" t="s">
         <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>212</v>
+        <v>452</v>
       </c>
       <c r="D6" t="s">
         <v>59</v>
@@ -12569,13 +13219,13 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>218</v>
+        <v>467</v>
       </c>
       <c r="B7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C7" t="s">
-        <v>213</v>
+        <v>453</v>
       </c>
       <c r="D7" t="s">
         <v>60</v>
@@ -12583,13 +13233,13 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>221</v>
+        <v>468</v>
       </c>
       <c r="B8" t="s">
         <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>220</v>
+        <v>454</v>
       </c>
       <c r="D8" t="s">
         <v>59</v>
@@ -12597,98 +13247,98 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>224</v>
+        <v>469</v>
       </c>
       <c r="B9" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C9" t="s">
-        <v>223</v>
+        <v>455</v>
       </c>
       <c r="D9" t="s">
         <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>228</v>
+        <v>470</v>
       </c>
       <c r="B10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C10" t="s">
-        <v>227</v>
+        <v>456</v>
       </c>
       <c r="D10" t="s">
         <v>59</v>
       </c>
       <c r="E10" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>231</v>
+        <v>471</v>
       </c>
       <c r="B11" t="s">
         <v>93</v>
       </c>
       <c r="C11" t="s">
-        <v>230</v>
+        <v>457</v>
       </c>
       <c r="D11" t="s">
         <v>60</v>
       </c>
       <c r="E11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>234</v>
+        <v>472</v>
       </c>
       <c r="B12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C12" t="s">
-        <v>233</v>
+        <v>458</v>
       </c>
       <c r="D12" t="s">
         <v>60</v>
       </c>
       <c r="E12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>244</v>
+        <v>473</v>
       </c>
       <c r="B13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C13" t="s">
-        <v>236</v>
+        <v>459</v>
       </c>
       <c r="D13" t="s">
         <v>59</v>
       </c>
       <c r="E13" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>245</v>
+        <v>475</v>
       </c>
       <c r="B14" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C14" t="s">
-        <v>237</v>
+        <v>452</v>
       </c>
       <c r="D14" t="s">
         <v>59</v>
@@ -12696,87 +13346,121 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>246</v>
+        <v>474</v>
       </c>
       <c r="B15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C15" t="s">
-        <v>240</v>
+        <v>460</v>
       </c>
       <c r="D15" t="s">
         <v>59</v>
       </c>
       <c r="E15" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>247</v>
+        <v>476</v>
       </c>
       <c r="B16" t="s">
-        <v>251</v>
+        <v>192</v>
       </c>
       <c r="C16" t="s">
-        <v>249</v>
+        <v>461</v>
       </c>
       <c r="D16" t="s">
         <v>59</v>
       </c>
       <c r="E16" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>248</v>
+        <v>477</v>
       </c>
       <c r="B17" t="s">
-        <v>194</v>
+        <v>388</v>
       </c>
       <c r="C17" t="s">
-        <v>241</v>
+        <v>462</v>
       </c>
       <c r="D17" t="s">
         <v>59</v>
       </c>
       <c r="E17" t="s">
-        <v>242</v>
+        <v>397</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>399</v>
+        <v>478</v>
       </c>
       <c r="B18" t="s">
-        <v>392</v>
+        <v>420</v>
       </c>
       <c r="C18" t="s">
-        <v>400</v>
+        <v>421</v>
       </c>
       <c r="D18" t="s">
         <v>59</v>
       </c>
       <c r="E18" t="s">
-        <v>401</v>
+        <v>415</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>423</v>
+        <v>480</v>
       </c>
       <c r="B19" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="C19" t="s">
-        <v>425</v>
+        <v>481</v>
       </c>
       <c r="D19" t="s">
         <v>59</v>
       </c>
       <c r="E19" t="s">
-        <v>419</v>
+        <v>415</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>483</v>
+      </c>
+      <c r="B20" t="s">
+        <v>488</v>
+      </c>
+      <c r="C20" t="s">
+        <v>484</v>
+      </c>
+      <c r="D20" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>487</v>
+      </c>
+      <c r="B21" t="s">
+        <v>490</v>
+      </c>
+      <c r="C21" t="s">
+        <v>489</v>
+      </c>
+      <c r="D21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" t="s">
+        <v>415</v>
       </c>
     </row>
   </sheetData>
@@ -12806,7 +13490,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -13088,19 +13772,19 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F15" t="s">
         <v>48</v>
       </c>
       <c r="G15" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="H15" t="s">
         <v>59</v>
       </c>
       <c r="I15" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -13123,19 +13807,19 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F17" t="s">
         <v>91</v>
       </c>
       <c r="G17" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="H17" t="s">
         <v>59</v>
       </c>
       <c r="I17" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -13156,19 +13840,19 @@
         <v>39370.1</v>
       </c>
       <c r="E19" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>92</v>
       </c>
       <c r="G19" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="H19" t="s">
         <v>59</v>
       </c>
       <c r="I19" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -13180,19 +13864,19 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>93</v>
       </c>
       <c r="G20" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="H20" t="s">
         <v>60</v>
       </c>
       <c r="I20" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -13204,19 +13888,19 @@
         <v>39370</v>
       </c>
       <c r="E21" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>94</v>
       </c>
       <c r="G21" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="H21" t="s">
         <v>59</v>
       </c>
       <c r="I21" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -13228,19 +13912,19 @@
         <v>39370</v>
       </c>
       <c r="E22" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="G22" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="H22" t="s">
         <v>59</v>
       </c>
       <c r="I22" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -13252,19 +13936,19 @@
         <v>39370</v>
       </c>
       <c r="E23" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G23" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="H23" t="s">
         <v>59</v>
       </c>
       <c r="I23" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -13272,12 +13956,12 @@
         <v>10</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="B25" s="4" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
   </sheetData>
@@ -13322,7 +14006,7 @@
         <v>57</v>
       </c>
       <c r="G1" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -13382,7 +14066,7 @@
         <v>108</v>
       </c>
       <c r="F4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -13445,7 +14129,7 @@
         <v>113</v>
       </c>
       <c r="F7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -13519,13 +14203,13 @@
         <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="D11" t="s">
         <v>59</v>
       </c>
       <c r="E11" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G11">
         <v>1.5</v>
@@ -13539,13 +14223,13 @@
         <v>91</v>
       </c>
       <c r="C12" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D12" t="s">
         <v>59</v>
       </c>
       <c r="E12" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="G12">
         <v>1.5</v>
@@ -13559,13 +14243,13 @@
         <v>92</v>
       </c>
       <c r="C13" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D13" t="s">
         <v>59</v>
       </c>
       <c r="E13" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G13">
         <v>1.5</v>
@@ -13579,13 +14263,13 @@
         <v>93</v>
       </c>
       <c r="C14" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="D14" t="s">
         <v>60</v>
       </c>
       <c r="E14" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -13593,19 +14277,19 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>94</v>
       </c>
       <c r="C15" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="D15" t="s">
         <v>59</v>
       </c>
       <c r="E15" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G15">
         <v>1.5</v>
@@ -13613,19 +14297,19 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C16" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="D16" t="s">
         <v>59</v>
       </c>
       <c r="E16" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="G16">
         <v>1.5</v>
@@ -13633,19 +14317,19 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C17" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="D17" t="s">
         <v>59</v>
       </c>
       <c r="E17" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -13653,19 +14337,19 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C18" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D18" t="s">
         <v>60</v>
       </c>
       <c r="E18" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G18">
         <v>-1</v>
@@ -13698,7 +14382,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -13714,7 +14398,7 @@
         <v>69</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="9" t="s">
@@ -13744,13 +14428,13 @@
       <c r="C5" s="3"/>
       <c r="D5" s="2"/>
       <c r="E5" s="9" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F5" t="s">
         <v>43</v>
       </c>
       <c r="G5" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="H5" t="s">
         <v>59</v>
@@ -13766,19 +14450,19 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="F6" t="s">
         <v>274</v>
       </c>
-      <c r="F6" t="s">
-        <v>278</v>
-      </c>
       <c r="G6" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="H6" t="s">
         <v>60</v>
       </c>
       <c r="I6" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17">
@@ -13792,13 +14476,13 @@
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="9" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F7" t="s">
         <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="H7" t="s">
         <v>59</v>
@@ -13818,13 +14502,13 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="9" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F8" t="s">
         <v>89</v>
       </c>
       <c r="G8" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H8" t="s">
         <v>60</v>
@@ -13843,13 +14527,13 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="9" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F9" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="G9" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="H9" t="s">
         <v>60</v>
@@ -13869,19 +14553,19 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="9" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="F10" t="s">
         <v>42</v>
       </c>
       <c r="G10" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="H10" t="s">
         <v>59</v>
       </c>
       <c r="I10" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="17">
@@ -13895,13 +14579,13 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="9" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G11" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="H11" t="s">
         <v>60</v>
@@ -13921,13 +14605,13 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="9" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F12" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="G12" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="H12" t="s">
         <v>60</v>
@@ -13947,13 +14631,13 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="9" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="F13" t="s">
         <v>45</v>
       </c>
       <c r="G13" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="H13" t="s">
         <v>59</v>
@@ -13961,7 +14645,7 @@
     </row>
     <row r="14" spans="1:9" ht="17">
       <c r="A14" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B14" s="2">
         <f>MAX(B5:B7) + C6</f>
@@ -13970,13 +14654,13 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="9" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="F14" t="s">
         <v>47</v>
       </c>
       <c r="G14" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="H14" t="s">
         <v>59</v>
@@ -13984,7 +14668,7 @@
     </row>
     <row r="15" spans="1:9" ht="17">
       <c r="A15" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B15" s="2">
         <f>SUM(B5:B7) + C6</f>
@@ -13993,13 +14677,13 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="9" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="F15" t="s">
         <v>48</v>
       </c>
       <c r="G15" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="H15" t="s">
         <v>59</v>
@@ -14007,7 +14691,7 @@
     </row>
     <row r="16" spans="1:9" ht="17">
       <c r="A16" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="4">
@@ -14016,19 +14700,19 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="9" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="F16" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="G16" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="H16" t="s">
         <v>60</v>
       </c>
       <c r="I16" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -14047,13 +14731,13 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="9" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F18" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="G18" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="H18" t="s">
         <v>59</v>
@@ -14082,13 +14766,13 @@
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="F20" t="s">
         <v>304</v>
       </c>
-      <c r="F20" t="s">
-        <v>308</v>
-      </c>
       <c r="G20" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="H20" t="s">
         <v>59</v>
@@ -14108,13 +14792,13 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="9" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="F21" t="s">
         <v>94</v>
       </c>
       <c r="G21" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="H21" t="s">
         <v>59</v>
@@ -14134,19 +14818,19 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="9" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F22" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="G22" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="H22" t="s">
         <v>59</v>
       </c>
       <c r="I22" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="17">
@@ -14159,13 +14843,13 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="9" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G23" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="H23" t="s">
         <v>59</v>
@@ -14181,19 +14865,19 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="9" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="F24" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G24" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="H24" t="s">
         <v>59</v>
       </c>
       <c r="I24" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -14214,19 +14898,19 @@
         <v>40000</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G26" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="H26" t="s">
         <v>59</v>
       </c>
       <c r="I26" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="17">
@@ -14238,19 +14922,19 @@
         <v>45000</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G27" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="H27" t="s">
         <v>60</v>
       </c>
       <c r="I27" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="17">
@@ -14262,19 +14946,19 @@
         <v>39370</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="G28" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="H28" t="s">
         <v>59</v>
       </c>
       <c r="I28" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -14288,36 +14972,36 @@
     </row>
     <row r="31" spans="1:9" ht="17">
       <c r="A31" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C31" s="2">
         <f>ROUNDUP(C6/100, 0)</f>
         <v>21</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G31" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="H31" t="s">
         <v>60</v>
       </c>
       <c r="I31" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B34">
         <v>10</v>
@@ -14325,7 +15009,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B35">
         <v>20</v>
@@ -14333,20 +15017,20 @@
     </row>
     <row r="36" spans="1:9" ht="17">
       <c r="A36" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C36">
         <f>B34+B35</f>
         <v>30</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F36" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G36" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="H36" t="s">
         <v>59</v>
@@ -14354,20 +15038,20 @@
     </row>
     <row r="37" spans="1:9" ht="17">
       <c r="A37" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C37">
         <f>B34+B35</f>
         <v>30</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="F37" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="G37" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="H37" t="s">
         <v>59</v>
@@ -14375,20 +15059,20 @@
     </row>
     <row r="38" spans="1:9" ht="17">
       <c r="A38" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C38">
         <f>B34+B35</f>
         <v>30</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F38" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="G38" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="H38" t="s">
         <v>59</v>
@@ -14396,7 +15080,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B39">
         <f>B34-B35</f>
@@ -14405,7 +15089,7 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B40">
         <f>B35/B34</f>
@@ -14414,7 +15098,7 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B41">
         <f>B35 + B34 + B34</f>
@@ -14423,26 +15107,26 @@
     </row>
     <row r="42" spans="1:9" ht="34">
       <c r="A42" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C42">
         <f>B34-B35</f>
         <v>-10</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="F42" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="G42" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="H42" t="s">
         <v>60</v>
       </c>
       <c r="I42" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
   </sheetData>
@@ -14483,18 +15167,18 @@
         <v>62</v>
       </c>
       <c r="F1" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B2" t="s">
         <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D2" t="s">
         <v>59</v>
@@ -14504,30 +15188,30 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B3" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C3" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D3" t="s">
         <v>60</v>
       </c>
       <c r="E3" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D4" t="s">
         <v>59</v>
@@ -14538,13 +15222,13 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B5" t="s">
         <v>89</v>
       </c>
       <c r="C5" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D5" t="s">
         <v>60</v>
@@ -14555,13 +15239,13 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B6" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C6" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D6" t="s">
         <v>60</v>
@@ -14572,30 +15256,30 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B7" t="s">
         <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D7" t="s">
         <v>59</v>
       </c>
       <c r="E7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C8" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D8" t="s">
         <v>60</v>
@@ -14606,13 +15290,13 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B9" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C9" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D9" t="s">
         <v>60</v>
@@ -14623,13 +15307,13 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B10" t="s">
         <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D10" t="s">
         <v>59</v>
@@ -14637,13 +15321,13 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B11" t="s">
         <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D11" t="s">
         <v>59</v>
@@ -14651,13 +15335,13 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B12" t="s">
         <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D12" t="s">
         <v>59</v>
@@ -14665,30 +15349,30 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B13" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C13" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D13" t="s">
         <v>60</v>
       </c>
       <c r="E13" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B14" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C14" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D14" t="s">
         <v>59</v>
@@ -14699,13 +15383,13 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B15" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C15" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D15" t="s">
         <v>59</v>
@@ -14716,13 +15400,13 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B16" t="s">
         <v>94</v>
       </c>
       <c r="C16" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D16" t="s">
         <v>59</v>
@@ -14733,13 +15417,13 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B17" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C17" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D17" t="s">
         <v>59</v>
@@ -14750,13 +15434,13 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C18" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D18" t="s">
         <v>59</v>
@@ -14764,98 +15448,98 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B19" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C19" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D19" t="s">
         <v>59</v>
       </c>
       <c r="E19" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C20" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D20" t="s">
         <v>59</v>
       </c>
       <c r="E20" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C21" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="D21" t="s">
         <v>60</v>
       </c>
       <c r="E21" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C22" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="D22" t="s">
         <v>59</v>
       </c>
       <c r="E22" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C23" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D23" t="s">
         <v>60</v>
       </c>
       <c r="E23" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B24" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C24" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="D24" t="s">
         <v>59</v>
@@ -14863,13 +15547,13 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B25" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C25" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D25" t="s">
         <v>59</v>
@@ -14877,13 +15561,13 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B26" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C26" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D26" t="s">
         <v>59</v>
@@ -14891,19 +15575,19 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B27" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C27" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D27" t="s">
         <v>59</v>
       </c>
       <c r="E27" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F27">
         <v>2</v>
@@ -14939,7 +15623,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -14955,7 +15639,7 @@
         <v>69</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s">
@@ -14979,7 +15663,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -15026,20 +15710,20 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C10">
         <f>MAX(C5:C9)</f>
         <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F10" t="s">
         <v>90</v>
       </c>
       <c r="G10" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H10" t="s">
         <v>59</v>
@@ -15047,20 +15731,20 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C11">
         <f>MAX(C5:C9)</f>
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G11" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="H11" t="s">
         <v>60</v>
@@ -15068,20 +15752,20 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B12">
         <f>B5 + B6</f>
         <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F12" t="s">
         <v>26</v>
       </c>
       <c r="G12" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H12" t="s">
         <v>59</v>
@@ -15089,20 +15773,20 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C13">
         <f>C6 + C7</f>
         <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G13" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H13" t="s">
         <v>60</v>
@@ -15110,20 +15794,20 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B14" t="b">
         <f>B6 &gt; B5</f>
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F14" t="s">
         <v>47</v>
       </c>
       <c r="G14" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H14" t="s">
         <v>59</v>
@@ -15131,20 +15815,20 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C15" t="b">
         <f>C7  &lt; 10.5</f>
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G15" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="H15" t="s">
         <v>60</v>
@@ -15152,20 +15836,20 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B16" t="b">
         <f>B6 + B7 &gt; B5</f>
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F16" t="s">
         <v>49</v>
       </c>
       <c r="G16" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H16" t="s">
         <v>59</v>
@@ -15173,55 +15857,55 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C17" t="b">
         <f>C8 + C9 &gt; C5 - C6</f>
         <v>1</v>
       </c>
       <c r="E17" t="s">
+        <v>219</v>
+      </c>
+      <c r="F17" t="s">
         <v>222</v>
       </c>
-      <c r="F17" t="s">
-        <v>225</v>
-      </c>
       <c r="G17" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="H17" t="s">
         <v>60</v>
       </c>
       <c r="I17" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C18">
         <f>SUM(C5:C9)</f>
         <v>24</v>
       </c>
       <c r="E18" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G18" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H18" t="s">
         <v>59</v>
       </c>
       <c r="I18" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B19">
         <f>SUM(B5:B9)</f>
@@ -15230,31 +15914,31 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C20">
         <f>C7 + C9 + C6 + C5 + C8</f>
         <v>24</v>
       </c>
       <c r="E20" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F20" t="s">
         <v>93</v>
       </c>
       <c r="G20" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H20" t="s">
         <v>60</v>
       </c>
       <c r="I20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C21">
         <f>C7 + C9 + C6 + C5 + C8</f>
@@ -15263,68 +15947,68 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C22">
         <f>C5^C6 - C7/C9</f>
         <v>30.333333333333332</v>
       </c>
       <c r="E22" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G22" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H22" t="s">
         <v>60</v>
       </c>
       <c r="I22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B23">
         <f>B5^B7 - B8/9</f>
         <v>1023.8888888888889</v>
       </c>
       <c r="E23" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G23" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H23" t="s">
         <v>59</v>
       </c>
       <c r="I23" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B24">
         <f>B5^B7 - B8</f>
         <v>1023</v>
       </c>
       <c r="E24" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F24" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G24" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H24" t="s">
         <v>59</v>
@@ -15332,79 +16016,79 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B25" s="7">
         <f>B6^B8 - B9/B6</f>
         <v>3.8</v>
       </c>
       <c r="E25" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F25" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G25" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H25" t="s">
         <v>59</v>
       </c>
       <c r="I25" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B26" t="b">
         <f>B7 &gt;= B6</f>
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F26" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G26" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="H26" t="s">
         <v>59</v>
       </c>
       <c r="I26" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C27">
         <f>SUM(C5:C9)</f>
         <v>24</v>
       </c>
       <c r="E27" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="F27" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G27" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="H27" t="s">
         <v>59</v>
       </c>
       <c r="I27" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B28">
         <v>24</v>
@@ -15412,31 +16096,31 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C29">
         <f>SUM(C5:C9)</f>
         <v>24</v>
       </c>
       <c r="E29" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="F29" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G29" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H29" t="s">
         <v>59</v>
       </c>
       <c r="I29" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B30">
         <f>SUM(C5:C9)</f>
@@ -15445,7 +16129,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B31">
         <f>SUM(B16:B20)</f>
@@ -15454,7 +16138,7 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="B32" t="b">
         <f>C7 &gt; LEN("ABCD") - 4 + 10</f>
@@ -15508,13 +16192,13 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B2" t="s">
         <v>90</v>
       </c>
       <c r="C2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D2" t="s">
         <v>59</v>
@@ -15522,13 +16206,13 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D3" t="s">
         <v>60</v>
@@ -15536,13 +16220,13 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D4" t="s">
         <v>59</v>
@@ -15550,13 +16234,13 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C5" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D5" t="s">
         <v>60</v>
@@ -15564,13 +16248,13 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B6" t="s">
         <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D6" t="s">
         <v>59</v>
@@ -15578,13 +16262,13 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D7" t="s">
         <v>60</v>
@@ -15592,13 +16276,13 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B8" t="s">
         <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D8" t="s">
         <v>59</v>
@@ -15606,98 +16290,98 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B9" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C9" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D9" t="s">
         <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C10" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D10" t="s">
         <v>59</v>
       </c>
       <c r="E10" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B11" t="s">
         <v>93</v>
       </c>
       <c r="C11" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D11" t="s">
         <v>60</v>
       </c>
       <c r="E11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C12" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D12" t="s">
         <v>60</v>
       </c>
       <c r="E12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C13" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D13" t="s">
         <v>59</v>
       </c>
       <c r="E13" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B14" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C14" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D14" t="s">
         <v>59</v>
@@ -15705,87 +16389,87 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C15" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D15" t="s">
         <v>59</v>
       </c>
       <c r="E15" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B16" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C16" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D16" t="s">
         <v>59</v>
       </c>
       <c r="E16" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B17" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C17" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D17" t="s">
         <v>59</v>
       </c>
       <c r="E17" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B18" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C18" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="D18" t="s">
         <v>59</v>
       </c>
       <c r="E18" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B19" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C19" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="D19" t="s">
         <v>59</v>
       </c>
       <c r="E19" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
   </sheetData>

--- a/excel/TestModeKey.xlsx
+++ b/excel/TestModeKey.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrew/git/pysheetgrader/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE91766-0288-0F4D-97A0-79ED76209272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{557B809B-3139-4D4E-9844-24B2796E00ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="33600" windowHeight="14140" tabRatio="883" activeTab="1" xr2:uid="{6E72627C-1CB6-4848-9B50-C1295434D515}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="33600" windowHeight="14140" tabRatio="883" activeTab="2" xr2:uid="{6E72627C-1CB6-4848-9B50-C1295434D515}"/>
   </bookViews>
   <sheets>
     <sheet name="SheetGradingOrder" sheetId="1" r:id="rId1"/>
@@ -1745,6 +1745,788 @@
         </r>
       </text>
     </comment>
+    <comment ref="B36" authorId="1" shapeId="0" xr:uid="{9045E317-9474-DA4F-8A0D-08DD6BAE2003}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>rubric:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> score: 1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> type: relative</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> parse_excel: true</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B37" authorId="1" shapeId="0" xr:uid="{F8B64B87-3D35-984B-A635-3EEE72FA196D}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>rubric:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> score: 1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> type: relative</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> parse_excel: true</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B38" authorId="1" shapeId="0" xr:uid="{C38C6144-4544-BD49-B40D-A631E19FF70F}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>rubric:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> score: 1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> type: relative</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> parse_excel: true
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> delta: 0.05
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B39" authorId="1" shapeId="0" xr:uid="{65DA3EB2-098C-6642-8E10-2C401BB5719A}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>rubric:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> score: 1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> type: relative</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> parse_excel: true</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B40" authorId="1" shapeId="0" xr:uid="{51B3ECBC-A1E1-F445-8CEF-763647DCEF7A}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>rubric:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> score: 1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> type: relative</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> parse_excel: true</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B41" authorId="1" shapeId="0" xr:uid="{D8E629A3-BF1F-224B-8F84-C57E1B40C172}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>rubric:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> score: 1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> type: relative</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> parse_excel: true</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B42" authorId="1" shapeId="0" xr:uid="{516387B7-39D5-F949-BD29-F425E5FA67B1}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>rubric:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> score: 1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> type: relative</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> parse_excel: true</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B43" authorId="1" shapeId="0" xr:uid="{F8B8E02C-8E5D-A74E-9BEA-9BE7347A30CB}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>rubric:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> score: 1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> type: relative</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> parse_excel: true</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B44" authorId="1" shapeId="0" xr:uid="{CFC694C2-A41C-184F-85DB-DFE530935B05}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>rubric:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> score: 1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> type: relative</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> parse_excel: true</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B45" authorId="1" shapeId="0" xr:uid="{94409C94-6976-D245-BD40-30078B5CBFA5}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>rubric:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> score: 1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> type: relative</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> parse_excel: true</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -8476,7 +9258,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="530">
   <si>
     <t>Number</t>
   </si>
@@ -9933,9 +10715,6 @@
     <t>T-Relative-XL-AVG</t>
   </si>
   <si>
-    <t xml:space="preserve"> IF (with NOT, AND, OR), LN, STDEV.S,  ROUND, COUNTIF, CONCATENATE, VLOOKUP</t>
-  </si>
-  <si>
     <t>round</t>
   </si>
   <si>
@@ -9948,7 +10727,127 @@
     <t>T-Relative-XL-ROUND</t>
   </si>
   <si>
+    <t>XL21</t>
+  </si>
+  <si>
     <t>B35</t>
+  </si>
+  <si>
+    <t>concat</t>
+  </si>
+  <si>
+    <t>T-Relative-XL-Concat</t>
+  </si>
+  <si>
+    <t>ln</t>
+  </si>
+  <si>
+    <t>B36</t>
+  </si>
+  <si>
+    <t>T-Relative-XL-Ln</t>
+  </si>
+  <si>
+    <t>B37</t>
+  </si>
+  <si>
+    <t>stdev</t>
+  </si>
+  <si>
+    <t>XL22</t>
+  </si>
+  <si>
+    <t>XL23</t>
+  </si>
+  <si>
+    <t>B38</t>
+  </si>
+  <si>
+    <t>T-Relative-XL-STDEV</t>
+  </si>
+  <si>
+    <t>XL24</t>
+  </si>
+  <si>
+    <t>B39</t>
+  </si>
+  <si>
+    <t>T-Relative-XL-COUNTIF</t>
+  </si>
+  <si>
+    <t>countif</t>
+  </si>
+  <si>
+    <t>vlookup</t>
+  </si>
+  <si>
+    <t>XL25</t>
+  </si>
+  <si>
+    <t>B40</t>
+  </si>
+  <si>
+    <t>T-Relative-XL-VLOOKUP</t>
+  </si>
+  <si>
+    <t>if1</t>
+  </si>
+  <si>
+    <t>if2</t>
+  </si>
+  <si>
+    <t>XL26</t>
+  </si>
+  <si>
+    <t>B41</t>
+  </si>
+  <si>
+    <t>XL27</t>
+  </si>
+  <si>
+    <t>B42</t>
+  </si>
+  <si>
+    <t>T-Relative-XL-IF1</t>
+  </si>
+  <si>
+    <t>T-Relative-XL-IF2</t>
+  </si>
+  <si>
+    <t>if3</t>
+  </si>
+  <si>
+    <t>if4</t>
+  </si>
+  <si>
+    <t>if5</t>
+  </si>
+  <si>
+    <t>B43</t>
+  </si>
+  <si>
+    <t>B44</t>
+  </si>
+  <si>
+    <t>B45</t>
+  </si>
+  <si>
+    <t>T-Relative-XL-Ifand</t>
+  </si>
+  <si>
+    <t>T-Relative-XL-Ifor</t>
+  </si>
+  <si>
+    <t>T-Relative-XL-Ifnot</t>
+  </si>
+  <si>
+    <t>XL28</t>
+  </si>
+  <si>
+    <t>XL29</t>
+  </si>
+  <si>
+    <t>XL30</t>
   </si>
 </sst>
 </file>
@@ -12369,10 +13268,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CFDFF2D-5588-974C-8962-7185857425AC}">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -12666,7 +13565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>479</v>
       </c>
@@ -12675,7 +13574,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>482</v>
       </c>
@@ -12684,16 +13583,103 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B35">
         <f>ROUND(3.5, 0)</f>
         <v>4</v>
       </c>
-      <c r="E35" t="s">
-        <v>485</v>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>491</v>
+      </c>
+      <c r="B36" t="str">
+        <f>CONCATENATE("4", "", "5")</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>493</v>
+      </c>
+      <c r="B37">
+        <f>LN(EXP(3))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>497</v>
+      </c>
+      <c r="B38">
+        <f>_xlfn.STDEV.S(B5, B6, B7)</f>
+        <v>4.0414518843273806</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>505</v>
+      </c>
+      <c r="B39">
+        <f>COUNTIF(B4:B7, B4)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>506</v>
+      </c>
+      <c r="B40">
+        <f>VLOOKUP(B5, B5:C8, 2, FALSE)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>510</v>
+      </c>
+      <c r="B41">
+        <f>IF(B5&gt;B6, 1, 2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>511</v>
+      </c>
+      <c r="B42">
+        <f>IF(B7&gt;B6, 1, 2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>518</v>
+      </c>
+      <c r="B43">
+        <f>IF(AND(1&lt;2, 3&lt;4), 0, 100)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>519</v>
+      </c>
+      <c r="B44">
+        <f>IF(OR(2&lt;1, 3&lt;4), 0, 100)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>520</v>
+      </c>
+      <c r="B45">
+        <f>IF(NOT(2&lt;1), 0, 100)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -13113,10 +14099,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{529BA031-6D75-6C46-BAF1-3106D5A9BED1}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -13434,7 +14420,7 @@
         <v>483</v>
       </c>
       <c r="B20" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C20" t="s">
         <v>484</v>
@@ -13448,18 +14434,188 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B21" t="s">
         <v>490</v>
       </c>
       <c r="C21" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D21" t="s">
         <v>59</v>
       </c>
       <c r="E21" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>489</v>
+      </c>
+      <c r="B22" t="s">
+        <v>494</v>
+      </c>
+      <c r="C22" t="s">
+        <v>492</v>
+      </c>
+      <c r="D22" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>498</v>
+      </c>
+      <c r="B23" t="s">
+        <v>496</v>
+      </c>
+      <c r="C23" t="s">
+        <v>495</v>
+      </c>
+      <c r="D23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>499</v>
+      </c>
+      <c r="B24" t="s">
+        <v>500</v>
+      </c>
+      <c r="C24" t="s">
+        <v>501</v>
+      </c>
+      <c r="D24" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>502</v>
+      </c>
+      <c r="B25" t="s">
+        <v>503</v>
+      </c>
+      <c r="C25" t="s">
+        <v>504</v>
+      </c>
+      <c r="D25" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>507</v>
+      </c>
+      <c r="B26" t="s">
+        <v>513</v>
+      </c>
+      <c r="C26" t="s">
+        <v>516</v>
+      </c>
+      <c r="D26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="6" t="s">
+        <v>527</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>529</v>
+      </c>
+      <c r="B31" t="s">
+        <v>508</v>
+      </c>
+      <c r="C31" t="s">
+        <v>509</v>
+      </c>
+      <c r="D31" t="s">
+        <v>59</v>
+      </c>
+      <c r="E31" t="s">
         <v>415</v>
       </c>
     </row>

--- a/excel/TestModeKey.xlsx
+++ b/excel/TestModeKey.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrew/git/pysheetgrader/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{557B809B-3139-4D4E-9844-24B2796E00ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E3C94B-5FAA-4341-85BC-DD44594684E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="33600" windowHeight="14140" tabRatio="883" activeTab="2" xr2:uid="{6E72627C-1CB6-4848-9B50-C1295434D515}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="33600" windowHeight="14140" tabRatio="883" activeTab="4" xr2:uid="{6E72627C-1CB6-4848-9B50-C1295434D515}"/>
   </bookViews>
   <sheets>
     <sheet name="SheetGradingOrder" sheetId="1" r:id="rId1"/>
@@ -3725,82 +3725,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="B24" authorId="0" shapeId="0" xr:uid="{B9062C4A-897A-7F42-B2A7-E06C7C749395}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">rubric:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> score: 1
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> type: assertion</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B25" authorId="0" shapeId="0" xr:uid="{9675D975-E199-954B-91BF-FA9C32B67348}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">rubric:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> score: -1
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> type: assertion
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> grading: negative</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
@@ -9258,7 +9182,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1282" uniqueCount="533">
   <si>
     <t>Number</t>
   </si>
@@ -9617,6 +9541,9 @@
     <t>Minimum work is not satisfied!</t>
   </si>
   <si>
+    <t>RConstant</t>
+  </si>
+  <si>
     <t>Decade should be 202!</t>
   </si>
   <si>
@@ -9767,6 +9694,9 @@
     <t>Check12</t>
   </si>
   <si>
+    <t>RCheck</t>
+  </si>
+  <si>
     <t>A zero score should have been assigned to this cell</t>
   </si>
   <si>
@@ -9854,6 +9784,9 @@
     <t>Rel1</t>
   </si>
   <si>
+    <t>RRelative</t>
+  </si>
+  <si>
     <t>Rel2</t>
   </si>
   <si>
@@ -10046,6 +9979,9 @@
     <t>Formula4</t>
   </si>
   <si>
+    <t>RFormula</t>
+  </si>
+  <si>
     <t>Formula rubric with multi-prereq</t>
   </si>
   <si>
@@ -10478,24 +10414,15 @@
     <t>Cell should have been graded correct with alt cell - orig cell correct and matches alt cell too!</t>
   </si>
   <si>
-    <t>Probably bug in implementation</t>
-  </si>
-  <si>
     <t>$B5 &gt; $C7</t>
   </si>
   <si>
     <t>Assertion1</t>
   </si>
   <si>
-    <t>T-Assertion</t>
-  </si>
-  <si>
     <t>Assertion2</t>
   </si>
   <si>
-    <t>T-Assertion-2</t>
-  </si>
-  <si>
     <t>$B5 &gt; $C7 if $B5 != $B6 else $C8 &lt;= $C7</t>
   </si>
   <si>
@@ -10526,6 +10453,9 @@
     <t>T-Relative-Excel-Length</t>
   </si>
   <si>
+    <t>Assertion</t>
+  </si>
+  <si>
     <t>T-Assertion-Positive</t>
   </si>
   <si>
@@ -10557,6 +10487,9 @@
   </si>
   <si>
     <t>$B5 &gt; $C7 and $B5 != $B6</t>
+  </si>
+  <si>
+    <t>Manual</t>
   </si>
   <si>
     <t>Assertion3</t>
@@ -11323,7 +11256,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -11346,13 +11279,16 @@
         <v>57</v>
       </c>
       <c r="E1" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>119</v>
+      </c>
       <c r="C2">
         <v>1</v>
       </c>
@@ -11364,17 +11300,23 @@
       <c r="A3">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>265</v>
+      </c>
       <c r="C3">
         <v>-100</v>
       </c>
       <c r="E3" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
         <v>3</v>
       </c>
+      <c r="B4" t="s">
+        <v>200</v>
+      </c>
       <c r="C4">
         <v>1</v>
       </c>
@@ -11386,6 +11328,9 @@
       <c r="A5">
         <v>4</v>
       </c>
+      <c r="B5" t="s">
+        <v>170</v>
+      </c>
       <c r="C5">
         <v>1</v>
       </c>
@@ -11397,22 +11342,28 @@
       <c r="A6">
         <v>5</v>
       </c>
+      <c r="B6" t="s">
+        <v>423</v>
+      </c>
       <c r="C6">
         <v>-100</v>
       </c>
       <c r="E6" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
         <v>6</v>
       </c>
+      <c r="B7" t="s">
+        <v>435</v>
+      </c>
       <c r="C7">
         <v>-100</v>
       </c>
       <c r="E7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -11420,13 +11371,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="C8">
         <v>-100</v>
       </c>
       <c r="E8" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -11457,7 +11408,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -11476,7 +11427,7 @@
         <v>68</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s">
@@ -11500,7 +11451,7 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -11547,7 +11498,7 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B10">
         <f>MAX(B5:B9)</f>
@@ -11557,13 +11508,13 @@
         <v>10.4</v>
       </c>
       <c r="F10" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="G10" t="s">
         <v>42</v>
       </c>
       <c r="H10" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I10" t="s">
         <v>59</v>
@@ -11571,20 +11522,20 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C11">
         <f>MAX(C5:C9)</f>
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G11" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H11" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I11" t="s">
         <v>60</v>
@@ -11592,20 +11543,20 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B12">
         <f>B5 + B6</f>
         <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G12" t="s">
         <v>26</v>
       </c>
       <c r="H12" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I12" t="s">
         <v>59</v>
@@ -11613,20 +11564,20 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C13">
         <f>C6 + C7</f>
         <v>15</v>
       </c>
       <c r="F13" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H13" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I13" t="s">
         <v>60</v>
@@ -11634,7 +11585,7 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B14" t="b">
         <f>B6 &gt; B5</f>
@@ -11644,13 +11595,13 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G14" t="s">
         <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I14" t="s">
         <v>59</v>
@@ -11658,7 +11609,7 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C15" t="b">
         <f>C7  &lt; 10.5</f>
@@ -11668,13 +11619,13 @@
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G15" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H15" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I15" t="s">
         <v>60</v>
@@ -11682,20 +11633,20 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B16" t="b">
         <f>B6 + B7 &gt; B5</f>
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G16" t="s">
         <v>49</v>
       </c>
       <c r="H16" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I16" t="s">
         <v>59</v>
@@ -11703,55 +11654,55 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B17" t="b">
         <f>C8 + C9 &gt; C5 - C6</f>
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G17" t="s">
         <v>91</v>
       </c>
       <c r="H17" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I17" t="s">
         <v>60</v>
       </c>
       <c r="J17" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C18">
         <f>SUM(C5:C9)</f>
         <v>24</v>
       </c>
       <c r="F18" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G18" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H18" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="I18" t="s">
         <v>59</v>
       </c>
       <c r="J18" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B19">
         <f>B5+B6+B7+B8+B9</f>
@@ -11760,31 +11711,31 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C20">
         <f>C7 + C9 + C6 + C5 + C8</f>
         <v>24</v>
       </c>
       <c r="F20" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G20" t="s">
         <v>93</v>
       </c>
       <c r="H20" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I20" t="s">
         <v>60</v>
       </c>
       <c r="J20" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C21">
         <f>C7 + C9 + C6 + C5 + C8</f>
@@ -11793,55 +11744,55 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C22">
         <f>C5^C6 - C7/C9</f>
         <v>30.333333333333332</v>
       </c>
       <c r="F22" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G22" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H22" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I22" t="s">
         <v>60</v>
       </c>
       <c r="J22" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B23">
         <f>B5^B7 - B8/9</f>
         <v>1023.8888888888889</v>
       </c>
       <c r="F23" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G23" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H23" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I23" t="s">
         <v>59</v>
       </c>
       <c r="J23" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B24">
         <f>B5^B7 - B8</f>
@@ -11852,96 +11803,96 @@
         <v>1023</v>
       </c>
       <c r="F24" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="G24" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H24" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="I24" t="s">
         <v>59</v>
       </c>
       <c r="J24" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B25" s="7">
         <f>B6^B8 - B9/B6</f>
         <v>3.8</v>
       </c>
       <c r="F25" t="s">
+        <v>177</v>
+      </c>
+      <c r="G25" t="s">
+        <v>178</v>
+      </c>
+      <c r="H25" t="s">
         <v>175</v>
-      </c>
-      <c r="G25" t="s">
-        <v>176</v>
-      </c>
-      <c r="H25" t="s">
-        <v>173</v>
       </c>
       <c r="I25" t="s">
         <v>59</v>
       </c>
       <c r="J25" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B26" t="b">
         <f>B6  &lt;= B7</f>
         <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G26" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H26" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="I26" t="s">
         <v>59</v>
       </c>
       <c r="J26" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C27">
         <f>SUM(C5:C9)</f>
         <v>24</v>
       </c>
       <c r="F27" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G27" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H27" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="I27" t="s">
         <v>60</v>
       </c>
       <c r="J27" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B28">
         <v>48</v>
@@ -11949,30 +11900,30 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C29" t="b">
         <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="G29" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="H29" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="I29" t="s">
         <v>60</v>
       </c>
       <c r="J29" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C30">
         <f>SUM(C5:C9)</f>
@@ -11982,24 +11933,24 @@
         <v>23.5</v>
       </c>
       <c r="F30" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="G30" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="H30" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="I30" t="s">
         <v>59</v>
       </c>
       <c r="J30" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B31">
         <v>23.5</v>
@@ -12007,7 +11958,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B32">
         <f>SUM(C5:C9)</f>
@@ -12016,7 +11967,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B33" t="b">
         <f>B11  &gt;= B12</f>
@@ -12076,30 +12027,30 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B2" t="s">
         <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D2" t="s">
         <v>59</v>
       </c>
       <c r="F2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D3" t="s">
         <v>60</v>
@@ -12107,13 +12058,13 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D4" t="s">
         <v>59</v>
@@ -12121,13 +12072,13 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D5" t="s">
         <v>60</v>
@@ -12135,13 +12086,13 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B6" t="s">
         <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D6" t="s">
         <v>59</v>
@@ -12149,13 +12100,13 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D7" t="s">
         <v>60</v>
@@ -12163,13 +12114,13 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B8" t="s">
         <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D8" t="s">
         <v>59</v>
@@ -12177,206 +12128,206 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B9" t="s">
         <v>91</v>
       </c>
       <c r="C9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D9" t="s">
         <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C10" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D10" t="s">
         <v>59</v>
       </c>
       <c r="E10" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B11" t="s">
         <v>93</v>
       </c>
       <c r="C11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D11" t="s">
         <v>60</v>
       </c>
       <c r="E11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C12" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D12" t="s">
         <v>60</v>
       </c>
       <c r="E12" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B13" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C13" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D13" t="s">
         <v>59</v>
       </c>
       <c r="E13" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
+        <v>176</v>
+      </c>
+      <c r="B14" t="s">
         <v>174</v>
       </c>
-      <c r="B14" t="s">
-        <v>172</v>
-      </c>
       <c r="C14" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D14" t="s">
         <v>59</v>
       </c>
       <c r="E14" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
+        <v>180</v>
+      </c>
+      <c r="B15" t="s">
         <v>178</v>
       </c>
-      <c r="B15" t="s">
-        <v>176</v>
-      </c>
       <c r="C15" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D15" t="s">
         <v>59</v>
       </c>
       <c r="E15" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
+        <v>181</v>
+      </c>
+      <c r="B16" t="s">
         <v>179</v>
       </c>
-      <c r="B16" t="s">
-        <v>177</v>
-      </c>
       <c r="C16" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D16" t="s">
         <v>59</v>
       </c>
       <c r="E16" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
+        <v>196</v>
+      </c>
+      <c r="B17" t="s">
         <v>194</v>
       </c>
-      <c r="B17" t="s">
-        <v>192</v>
-      </c>
       <c r="C17" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="D17" t="s">
         <v>60</v>
       </c>
       <c r="E17" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="B18" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="C18" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="D18" t="s">
         <v>60</v>
       </c>
       <c r="E18" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="B19" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="C19" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="D19" t="s">
         <v>59</v>
       </c>
       <c r="E19" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B20" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C20" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D20" t="s">
         <v>59</v>
       </c>
       <c r="E20" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
   </sheetData>
@@ -13289,7 +13240,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -13305,13 +13256,13 @@
         <v>69</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -13361,7 +13312,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C10">
         <f>MAX(C5:C9)</f>
@@ -13370,7 +13321,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C11">
         <f>MAX(C5:C9)</f>
@@ -13379,7 +13330,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B12">
         <f>B5 + B6</f>
@@ -13388,7 +13339,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C13">
         <f>C6 + C7</f>
@@ -13397,7 +13348,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B14" t="b">
         <f>B6 &gt; B5</f>
@@ -13406,7 +13357,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C15" t="b">
         <f>C7  &lt; 10.5</f>
@@ -13415,7 +13366,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B16" t="b">
         <f>B6 + B7 &gt; B5</f>
@@ -13424,7 +13375,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C17" t="b">
         <f>C8 + C9 &gt; C5 - C6</f>
@@ -13433,7 +13384,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C18">
         <f>SUM(C5:C9)</f>
@@ -13442,7 +13393,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B19">
         <f>SUM(B5:B9)</f>
@@ -13451,7 +13402,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C20">
         <f>C7 + C9 + C6 + C5 + C8</f>
@@ -13460,7 +13411,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C21">
         <f>C7 + C9 + C6 + C5 + C8</f>
@@ -13469,7 +13420,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C22">
         <f>C5^C6 - C7/C9</f>
@@ -13478,7 +13429,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B23">
         <f>B5^B7 - B8/9</f>
@@ -13487,7 +13438,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B24">
         <f>B5^B7 - B8</f>
@@ -13496,7 +13447,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B25" s="7">
         <f>B6^B8 - B9/B6</f>
@@ -13505,7 +13456,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B26" t="b">
         <f>B7 &gt;= B6</f>
@@ -13514,7 +13465,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C27">
         <f>SUM(C5:C9)</f>
@@ -13523,7 +13474,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B28">
         <v>24</v>
@@ -13531,7 +13482,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C29">
         <f>SUM(C5:C9)</f>
@@ -13540,7 +13491,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B30">
         <f>SUM(C5:C9)</f>
@@ -13549,7 +13500,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B31">
         <f>SUM(B16:B20)</f>
@@ -13558,7 +13509,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B32" t="b">
         <f>C7 &gt; LEN("ABCD") - 4 + 10</f>
@@ -13567,7 +13518,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="B33" s="11">
         <f>SQRT(D6)</f>
@@ -13576,7 +13527,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="B34">
         <f>AVERAGE(B5:B6)</f>
@@ -13585,7 +13536,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="B35">
         <f>ROUND(3.5, 0)</f>
@@ -13594,7 +13545,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B36" t="str">
         <f>CONCATENATE("4", "", "5")</f>
@@ -13603,7 +13554,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="B37">
         <f>LN(EXP(3))</f>
@@ -13612,7 +13563,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="B38">
         <f>_xlfn.STDEV.S(B5, B6, B7)</f>
@@ -13621,7 +13572,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="B39">
         <f>COUNTIF(B4:B7, B4)</f>
@@ -13630,7 +13581,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="B40">
         <f>VLOOKUP(B5, B5:C8, 2, FALSE)</f>
@@ -13639,7 +13590,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="B41">
         <f>IF(B5&gt;B6, 1, 2)</f>
@@ -13648,7 +13599,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="B42">
         <f>IF(B7&gt;B6, 1, 2)</f>
@@ -13657,7 +13608,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="B43">
         <f>IF(AND(1&lt;2, 3&lt;4), 0, 100)</f>
@@ -13666,7 +13617,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="B44">
         <f>IF(OR(2&lt;1, 3&lt;4), 0, 100)</f>
@@ -13675,7 +13626,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="B45">
         <f>IF(NOT(2&lt;1), 0, 100)</f>
@@ -13716,7 +13667,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -13756,41 +13707,41 @@
         <v>10</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:9">
       <c r="B6" s="4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:9">
       <c r="B7" s="4" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:9">
       <c r="B8" s="4" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:9">
       <c r="B9" s="4" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:9">
       <c r="B10" s="4" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -13888,112 +13839,112 @@
         <v>57</v>
       </c>
       <c r="G1" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B2" t="s">
         <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="D2" t="s">
         <v>59</v>
       </c>
       <c r="E2" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="D3" t="s">
         <v>60</v>
       </c>
       <c r="E3" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="F3" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="D4" t="s">
         <v>60</v>
       </c>
       <c r="E4" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="D5" t="s">
         <v>59</v>
       </c>
       <c r="E5" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="D6" t="s">
         <v>60</v>
       </c>
       <c r="E6" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B7" t="s">
         <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="D7" t="s">
         <v>60</v>
       </c>
       <c r="E7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
   </sheetData>
@@ -14043,53 +13994,53 @@
         <v>57</v>
       </c>
       <c r="G1" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="D2" t="s">
         <v>60</v>
       </c>
       <c r="E2" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="F2" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="G2" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="D3" t="s">
         <v>60</v>
       </c>
       <c r="E3" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="F3" t="s">
+        <v>433</v>
+      </c>
+      <c r="G3" t="s">
         <v>431</v>
-      </c>
-      <c r="G3" t="s">
-        <v>429</v>
       </c>
     </row>
   </sheetData>
@@ -14101,7 +14052,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{529BA031-6D75-6C46-BAF1-3106D5A9BED1}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
@@ -14135,13 +14086,13 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B2" t="s">
         <v>90</v>
       </c>
       <c r="C2" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="D2" t="s">
         <v>59</v>
@@ -14149,13 +14100,13 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="B3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C3" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="D3" t="s">
         <v>60</v>
@@ -14163,13 +14114,13 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="6" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="D4" t="s">
         <v>59</v>
@@ -14177,13 +14128,13 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="B5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C5" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="D5" t="s">
         <v>60</v>
@@ -14191,13 +14142,13 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="B6" t="s">
         <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="D6" t="s">
         <v>59</v>
@@ -14205,13 +14156,13 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="B7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C7" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="D7" t="s">
         <v>60</v>
@@ -14219,13 +14170,13 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="B8" t="s">
         <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="D8" t="s">
         <v>59</v>
@@ -14233,98 +14184,98 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="B9" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C9" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="D9" t="s">
         <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="B10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C10" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="D10" t="s">
         <v>59</v>
       </c>
       <c r="E10" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="B11" t="s">
         <v>93</v>
       </c>
       <c r="C11" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="D11" t="s">
         <v>60</v>
       </c>
       <c r="E11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="B12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C12" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="D12" t="s">
         <v>60</v>
       </c>
       <c r="E12" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="B13" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C13" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="D13" t="s">
         <v>59</v>
       </c>
       <c r="E13" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="B14" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C14" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="D14" t="s">
         <v>59</v>
@@ -14332,291 +14283,291 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="B15" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C15" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="D15" t="s">
         <v>59</v>
       </c>
       <c r="E15" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="B16" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C16" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="D16" t="s">
         <v>59</v>
       </c>
       <c r="E16" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="B17" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="C17" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="D17" t="s">
         <v>59</v>
       </c>
       <c r="E17" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="B18" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C18" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D18" t="s">
         <v>59</v>
       </c>
       <c r="E18" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="B19" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C19" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="D19" t="s">
         <v>59</v>
       </c>
       <c r="E19" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="B20" t="s">
+        <v>490</v>
+      </c>
+      <c r="C20" t="s">
         <v>487</v>
-      </c>
-      <c r="C20" t="s">
-        <v>484</v>
       </c>
       <c r="D20" t="s">
         <v>59</v>
       </c>
       <c r="E20" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="B21" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="C21" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="D21" t="s">
         <v>59</v>
       </c>
       <c r="E21" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="B22" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="C22" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="D22" t="s">
         <v>59</v>
       </c>
       <c r="E22" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
+        <v>501</v>
+      </c>
+      <c r="B23" t="s">
+        <v>499</v>
+      </c>
+      <c r="C23" t="s">
         <v>498</v>
-      </c>
-      <c r="B23" t="s">
-        <v>496</v>
-      </c>
-      <c r="C23" t="s">
-        <v>495</v>
       </c>
       <c r="D23" t="s">
         <v>59</v>
       </c>
       <c r="E23" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="B24" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="C24" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="D24" t="s">
         <v>59</v>
       </c>
       <c r="E24" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="B25" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="C25" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="D25" t="s">
         <v>59</v>
       </c>
       <c r="E25" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="B26" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="C26" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="D26" t="s">
         <v>59</v>
       </c>
       <c r="E26" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="6" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>59</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="6" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>59</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="6" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>59</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="6" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>59</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="B31" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="C31" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="D31" t="s">
         <v>59</v>
       </c>
       <c r="E31" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
   </sheetData>
@@ -14628,8 +14579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A103586-2C0E-0748-80AF-98E299C769E5}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -14646,7 +14597,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -14928,19 +14879,19 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="F15" t="s">
         <v>48</v>
       </c>
       <c r="G15" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="H15" t="s">
         <v>59</v>
       </c>
       <c r="I15" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -14963,19 +14914,19 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="F17" t="s">
         <v>91</v>
       </c>
       <c r="G17" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="H17" t="s">
         <v>59</v>
       </c>
       <c r="I17" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -14996,19 +14947,19 @@
         <v>39370.1</v>
       </c>
       <c r="E19" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>92</v>
       </c>
       <c r="G19" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="H19" t="s">
         <v>59</v>
       </c>
       <c r="I19" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -15020,19 +14971,19 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>93</v>
       </c>
       <c r="G20" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="H20" t="s">
         <v>60</v>
       </c>
       <c r="I20" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -15044,19 +14995,19 @@
         <v>39370</v>
       </c>
       <c r="E21" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>94</v>
       </c>
       <c r="G21" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="H21" t="s">
         <v>59</v>
       </c>
       <c r="I21" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -15068,19 +15019,19 @@
         <v>39370</v>
       </c>
       <c r="E22" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="G22" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="H22" t="s">
         <v>59</v>
       </c>
       <c r="I22" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -15092,33 +15043,26 @@
         <v>39370</v>
       </c>
       <c r="E23" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G23" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="H23" t="s">
         <v>59</v>
       </c>
       <c r="I23" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>407</v>
-      </c>
+      <c r="B24" s="4"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="B25" s="4" t="s">
-        <v>412</v>
-      </c>
+      <c r="B25" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15131,8 +15075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71EABA77-C8A8-0247-A6AC-2452B8B329D1}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -15162,7 +15106,7 @@
         <v>57</v>
       </c>
       <c r="G1" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -15222,7 +15166,7 @@
         <v>108</v>
       </c>
       <c r="F4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -15285,7 +15229,7 @@
         <v>113</v>
       </c>
       <c r="F7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -15359,13 +15303,13 @@
         <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="D11" t="s">
         <v>59</v>
       </c>
       <c r="E11" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="G11">
         <v>1.5</v>
@@ -15379,13 +15323,13 @@
         <v>91</v>
       </c>
       <c r="C12" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="D12" t="s">
         <v>59</v>
       </c>
       <c r="E12" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="G12">
         <v>1.5</v>
@@ -15399,13 +15343,13 @@
         <v>92</v>
       </c>
       <c r="C13" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="D13" t="s">
         <v>59</v>
       </c>
       <c r="E13" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="G13">
         <v>1.5</v>
@@ -15419,13 +15363,13 @@
         <v>93</v>
       </c>
       <c r="C14" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="D14" t="s">
         <v>60</v>
       </c>
       <c r="E14" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -15433,19 +15377,19 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>94</v>
       </c>
       <c r="C15" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="D15" t="s">
         <v>59</v>
       </c>
       <c r="E15" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="G15">
         <v>1.5</v>
@@ -15453,63 +15397,29 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="C16" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="D16" t="s">
         <v>59</v>
       </c>
       <c r="E16" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="G16">
         <v>1.5</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
-      <c r="A17" t="s">
-        <v>408</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="C17" t="s">
-        <v>409</v>
-      </c>
-      <c r="D17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E17" t="s">
-        <v>406</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" t="s">
-        <v>410</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="C18" t="s">
-        <v>411</v>
-      </c>
-      <c r="D18" t="s">
-        <v>60</v>
-      </c>
-      <c r="E18" t="s">
-        <v>406</v>
-      </c>
-      <c r="G18">
-        <v>-1</v>
-      </c>
+    <row r="17" spans="2:2">
+      <c r="B17" s="5"/>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -15538,7 +15448,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -15554,7 +15464,7 @@
         <v>69</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="9" t="s">
@@ -15584,13 +15494,13 @@
       <c r="C5" s="3"/>
       <c r="D5" s="2"/>
       <c r="E5" s="9" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="F5" t="s">
         <v>43</v>
       </c>
       <c r="G5" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="H5" t="s">
         <v>59</v>
@@ -15606,19 +15516,19 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="9" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="F6" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="G6" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="H6" t="s">
         <v>60</v>
       </c>
       <c r="I6" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17">
@@ -15632,13 +15542,13 @@
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="9" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="F7" t="s">
         <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="H7" t="s">
         <v>59</v>
@@ -15658,13 +15568,13 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="9" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="F8" t="s">
         <v>89</v>
       </c>
       <c r="G8" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="H8" t="s">
         <v>60</v>
@@ -15683,13 +15593,13 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="9" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F9" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="G9" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="H9" t="s">
         <v>60</v>
@@ -15709,19 +15619,19 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="9" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="F10" t="s">
         <v>42</v>
       </c>
       <c r="G10" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="H10" t="s">
         <v>59</v>
       </c>
       <c r="I10" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="17">
@@ -15735,13 +15645,13 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="9" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="F11" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G11" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="H11" t="s">
         <v>60</v>
@@ -15761,13 +15671,13 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="9" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="F12" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="G12" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="H12" t="s">
         <v>60</v>
@@ -15787,13 +15697,13 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="9" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="F13" t="s">
         <v>45</v>
       </c>
       <c r="G13" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="H13" t="s">
         <v>59</v>
@@ -15801,7 +15711,7 @@
     </row>
     <row r="14" spans="1:9" ht="17">
       <c r="A14" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B14" s="2">
         <f>MAX(B5:B7) + C6</f>
@@ -15810,13 +15720,13 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="9" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="F14" t="s">
         <v>47</v>
       </c>
       <c r="G14" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="H14" t="s">
         <v>59</v>
@@ -15824,7 +15734,7 @@
     </row>
     <row r="15" spans="1:9" ht="17">
       <c r="A15" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B15" s="2">
         <f>SUM(B5:B7) + C6</f>
@@ -15833,13 +15743,13 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="9" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="F15" t="s">
         <v>48</v>
       </c>
       <c r="G15" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="H15" t="s">
         <v>59</v>
@@ -15847,7 +15757,7 @@
     </row>
     <row r="16" spans="1:9" ht="17">
       <c r="A16" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="4">
@@ -15856,19 +15766,19 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="9" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="F16" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="G16" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="H16" t="s">
         <v>60</v>
       </c>
       <c r="I16" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -15887,13 +15797,13 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="9" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="F18" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="G18" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H18" t="s">
         <v>59</v>
@@ -15922,13 +15832,13 @@
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="9" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="F20" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="G20" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="H20" t="s">
         <v>59</v>
@@ -15948,13 +15858,13 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="9" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="F21" t="s">
         <v>94</v>
       </c>
       <c r="G21" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="H21" t="s">
         <v>59</v>
@@ -15974,19 +15884,19 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="9" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="F22" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="G22" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="H22" t="s">
         <v>59</v>
       </c>
       <c r="I22" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="17">
@@ -15999,13 +15909,13 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="9" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="F23" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G23" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="H23" t="s">
         <v>59</v>
@@ -16021,19 +15931,19 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="9" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="F24" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G24" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="H24" t="s">
         <v>59</v>
       </c>
       <c r="I24" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -16054,19 +15964,19 @@
         <v>40000</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="G26" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="H26" t="s">
         <v>59</v>
       </c>
       <c r="I26" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="17">
@@ -16078,19 +15988,19 @@
         <v>45000</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G27" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="H27" t="s">
         <v>60</v>
       </c>
       <c r="I27" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="17">
@@ -16102,19 +16012,19 @@
         <v>39370</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="G28" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="H28" t="s">
         <v>59</v>
       </c>
       <c r="I28" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -16128,36 +16038,36 @@
     </row>
     <row r="31" spans="1:9" ht="17">
       <c r="A31" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C31" s="2">
         <f>ROUNDUP(C6/100, 0)</f>
         <v>21</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="G31" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="H31" t="s">
         <v>60</v>
       </c>
       <c r="I31" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B34">
         <v>10</v>
@@ -16165,7 +16075,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B35">
         <v>20</v>
@@ -16173,20 +16083,20 @@
     </row>
     <row r="36" spans="1:9" ht="17">
       <c r="A36" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C36">
         <f>B34+B35</f>
         <v>30</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="F36" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="G36" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="H36" t="s">
         <v>59</v>
@@ -16194,20 +16104,20 @@
     </row>
     <row r="37" spans="1:9" ht="17">
       <c r="A37" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C37">
         <f>B34+B35</f>
         <v>30</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="F37" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="G37" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="H37" t="s">
         <v>59</v>
@@ -16215,20 +16125,20 @@
     </row>
     <row r="38" spans="1:9" ht="17">
       <c r="A38" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="C38">
         <f>B34+B35</f>
         <v>30</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="F38" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="G38" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="H38" t="s">
         <v>59</v>
@@ -16236,7 +16146,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="B39">
         <f>B34-B35</f>
@@ -16245,7 +16155,7 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="B40">
         <f>B35/B34</f>
@@ -16254,7 +16164,7 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="B41">
         <f>B35 + B34 + B34</f>
@@ -16263,26 +16173,26 @@
     </row>
     <row r="42" spans="1:9" ht="34">
       <c r="A42" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="C42">
         <f>B34-B35</f>
         <v>-10</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="F42" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="G42" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="H42" t="s">
         <v>60</v>
       </c>
       <c r="I42" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>
@@ -16323,18 +16233,18 @@
         <v>62</v>
       </c>
       <c r="F1" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B2" t="s">
         <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D2" t="s">
         <v>59</v>
@@ -16344,30 +16254,30 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B3" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C3" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D3" t="s">
         <v>60</v>
       </c>
       <c r="E3" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D4" t="s">
         <v>59</v>
@@ -16378,13 +16288,13 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B5" t="s">
         <v>89</v>
       </c>
       <c r="C5" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D5" t="s">
         <v>60</v>
@@ -16395,13 +16305,13 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B6" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C6" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="D6" t="s">
         <v>60</v>
@@ -16412,30 +16322,30 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B7" t="s">
         <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D7" t="s">
         <v>59</v>
       </c>
       <c r="E7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C8" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="D8" t="s">
         <v>60</v>
@@ -16446,13 +16356,13 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B9" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C9" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="D9" t="s">
         <v>60</v>
@@ -16463,13 +16373,13 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B10" t="s">
         <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="D10" t="s">
         <v>59</v>
@@ -16477,13 +16387,13 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B11" t="s">
         <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="D11" t="s">
         <v>59</v>
@@ -16491,13 +16401,13 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B12" t="s">
         <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="D12" t="s">
         <v>59</v>
@@ -16505,30 +16415,30 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
+        <v>303</v>
+      </c>
+      <c r="B13" t="s">
         <v>299</v>
       </c>
-      <c r="B13" t="s">
-        <v>295</v>
-      </c>
       <c r="C13" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="D13" t="s">
         <v>60</v>
       </c>
       <c r="E13" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="B14" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C14" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="D14" t="s">
         <v>59</v>
@@ -16539,13 +16449,13 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B15" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C15" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="D15" t="s">
         <v>59</v>
@@ -16556,13 +16466,13 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="B16" t="s">
         <v>94</v>
       </c>
       <c r="C16" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D16" t="s">
         <v>59</v>
@@ -16573,13 +16483,13 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B17" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="C17" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="D17" t="s">
         <v>59</v>
@@ -16590,13 +16500,13 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="B18" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C18" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D18" t="s">
         <v>59</v>
@@ -16604,98 +16514,98 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B19" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C19" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="D19" t="s">
         <v>59</v>
       </c>
       <c r="E19" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="C20" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="D20" t="s">
         <v>59</v>
       </c>
       <c r="E20" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C21" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="D21" t="s">
         <v>60</v>
       </c>
       <c r="E21" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="C22" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="D22" t="s">
         <v>59</v>
       </c>
       <c r="E22" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="C23" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="D23" t="s">
         <v>60</v>
       </c>
       <c r="E23" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B24" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="C24" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="D24" t="s">
         <v>59</v>
@@ -16703,13 +16613,13 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="B25" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C25" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="D25" t="s">
         <v>59</v>
@@ -16717,13 +16627,13 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="B26" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="C26" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="D26" t="s">
         <v>59</v>
@@ -16731,19 +16641,19 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B27" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="C27" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="D27" t="s">
         <v>59</v>
       </c>
       <c r="E27" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="F27">
         <v>2</v>
@@ -16779,7 +16689,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -16795,7 +16705,7 @@
         <v>69</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s">
@@ -16819,7 +16729,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -16866,20 +16776,20 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C10">
         <f>MAX(C5:C9)</f>
         <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="F10" t="s">
         <v>90</v>
       </c>
       <c r="G10" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="H10" t="s">
         <v>59</v>
@@ -16887,20 +16797,20 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C11">
         <f>MAX(C5:C9)</f>
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="F11" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G11" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="H11" t="s">
         <v>60</v>
@@ -16908,20 +16818,20 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B12">
         <f>B5 + B6</f>
         <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="F12" t="s">
         <v>26</v>
       </c>
       <c r="G12" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="H12" t="s">
         <v>59</v>
@@ -16929,20 +16839,20 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C13">
         <f>C6 + C7</f>
         <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G13" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="H13" t="s">
         <v>60</v>
@@ -16950,20 +16860,20 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B14" t="b">
         <f>B6 &gt; B5</f>
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F14" t="s">
         <v>47</v>
       </c>
       <c r="G14" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="H14" t="s">
         <v>59</v>
@@ -16971,20 +16881,20 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C15" t="b">
         <f>C7  &lt; 10.5</f>
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F15" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G15" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="H15" t="s">
         <v>60</v>
@@ -16992,20 +16902,20 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B16" t="b">
         <f>B6 + B7 &gt; B5</f>
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F16" t="s">
         <v>49</v>
       </c>
       <c r="G16" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="H16" t="s">
         <v>59</v>
@@ -17013,55 +16923,55 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C17" t="b">
         <f>C8 + C9 &gt; C5 - C6</f>
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="F17" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="G17" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="H17" t="s">
         <v>60</v>
       </c>
       <c r="I17" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C18">
         <f>SUM(C5:C9)</f>
         <v>24</v>
       </c>
       <c r="E18" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="F18" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G18" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="H18" t="s">
         <v>59</v>
       </c>
       <c r="I18" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B19">
         <f>SUM(B5:B9)</f>
@@ -17070,31 +16980,31 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C20">
         <f>C7 + C9 + C6 + C5 + C8</f>
         <v>24</v>
       </c>
       <c r="E20" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="F20" t="s">
         <v>93</v>
       </c>
       <c r="G20" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="H20" t="s">
         <v>60</v>
       </c>
       <c r="I20" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C21">
         <f>C7 + C9 + C6 + C5 + C8</f>
@@ -17103,68 +17013,68 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C22">
         <f>C5^C6 - C7/C9</f>
         <v>30.333333333333332</v>
       </c>
       <c r="E22" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="F22" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G22" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="H22" t="s">
         <v>60</v>
       </c>
       <c r="I22" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B23">
         <f>B5^B7 - B8/9</f>
         <v>1023.8888888888889</v>
       </c>
       <c r="E23" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="F23" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G23" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="H23" t="s">
         <v>59</v>
       </c>
       <c r="I23" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B24">
         <f>B5^B7 - B8</f>
         <v>1023</v>
       </c>
       <c r="E24" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="F24" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G24" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="H24" t="s">
         <v>59</v>
@@ -17172,79 +17082,79 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B25" s="7">
         <f>B6^B8 - B9/B6</f>
         <v>3.8</v>
       </c>
       <c r="E25" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F25" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G25" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="H25" t="s">
         <v>59</v>
       </c>
       <c r="I25" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B26" t="b">
         <f>B7 &gt;= B6</f>
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="F26" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G26" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="H26" t="s">
         <v>59</v>
       </c>
       <c r="I26" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C27">
         <f>SUM(C5:C9)</f>
         <v>24</v>
       </c>
       <c r="E27" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="F27" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G27" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="H27" t="s">
         <v>59</v>
       </c>
       <c r="I27" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B28">
         <v>24</v>
@@ -17252,31 +17162,31 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C29">
         <f>SUM(C5:C9)</f>
         <v>24</v>
       </c>
       <c r="E29" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="F29" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="G29" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="H29" t="s">
         <v>59</v>
       </c>
       <c r="I29" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B30">
         <f>SUM(C5:C9)</f>
@@ -17285,7 +17195,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B31">
         <f>SUM(B16:B20)</f>
@@ -17294,7 +17204,7 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B32" t="b">
         <f>C7 &gt; LEN("ABCD") - 4 + 10</f>
@@ -17348,13 +17258,13 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B2" t="s">
         <v>90</v>
       </c>
       <c r="C2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D2" t="s">
         <v>59</v>
@@ -17362,13 +17272,13 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C3" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D3" t="s">
         <v>60</v>
@@ -17376,13 +17286,13 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D4" t="s">
         <v>59</v>
@@ -17390,13 +17300,13 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C5" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D5" t="s">
         <v>60</v>
@@ -17404,13 +17314,13 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B6" t="s">
         <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D6" t="s">
         <v>59</v>
@@ -17418,13 +17328,13 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D7" t="s">
         <v>60</v>
@@ -17432,13 +17342,13 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B8" t="s">
         <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D8" t="s">
         <v>59</v>
@@ -17446,98 +17356,98 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B9" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C9" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D9" t="s">
         <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C10" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D10" t="s">
         <v>59</v>
       </c>
       <c r="E10" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B11" t="s">
         <v>93</v>
       </c>
       <c r="C11" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D11" t="s">
         <v>60</v>
       </c>
       <c r="E11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C12" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D12" t="s">
         <v>60</v>
       </c>
       <c r="E12" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B13" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C13" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D13" t="s">
         <v>59</v>
       </c>
       <c r="E13" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B14" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C14" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D14" t="s">
         <v>59</v>
@@ -17545,87 +17455,87 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B15" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C15" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D15" t="s">
         <v>59</v>
       </c>
       <c r="E15" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B16" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C16" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D16" t="s">
         <v>59</v>
       </c>
       <c r="E16" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C17" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D17" t="s">
         <v>59</v>
       </c>
       <c r="E17" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="B18" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="C18" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="D18" t="s">
         <v>59</v>
       </c>
       <c r="E18" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B19" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C19" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D19" t="s">
         <v>59</v>
       </c>
       <c r="E19" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
   </sheetData>

--- a/excel/TestModeKey.xlsx
+++ b/excel/TestModeKey.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrew/git/pysheetgrader/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E3C94B-5FAA-4341-85BC-DD44594684E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC5F84A1-D8AE-C74E-BEAA-E75DDB18B53D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="33600" windowHeight="14140" tabRatio="883" activeTab="4" xr2:uid="{6E72627C-1CB6-4848-9B50-C1295434D515}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="33600" windowHeight="14140" tabRatio="883" activeTab="1" xr2:uid="{6E72627C-1CB6-4848-9B50-C1295434D515}"/>
   </bookViews>
   <sheets>
     <sheet name="SheetGradingOrder" sheetId="1" r:id="rId1"/>
@@ -1481,7 +1481,6 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
           <t>rubric:</t>
         </r>
@@ -1491,18 +1490,16 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -1512,7 +1509,6 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
           <t>score: 1</t>
         </r>
@@ -1522,18 +1518,16 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -1543,7 +1537,6 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
           <t>type: relative</t>
         </r>
@@ -1553,18 +1546,16 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
         </r>
@@ -1574,7 +1565,6 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
           <t>parse_excel: true</t>
         </r>
@@ -1584,7 +1574,6 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -1599,7 +1588,6 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
           <t>rubric:</t>
         </r>
@@ -1609,18 +1597,16 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="18"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> score: 1</t>
         </r>
@@ -1630,18 +1616,16 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="18"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> type: relative</t>
         </r>
@@ -1651,18 +1635,16 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="18"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> parse_excel: true</t>
         </r>
@@ -1676,7 +1658,6 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
           <t>rubric:</t>
         </r>
@@ -1686,18 +1667,16 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="18"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> score: 1</t>
         </r>
@@ -1707,18 +1686,16 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="18"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> type: relative</t>
         </r>
@@ -1728,18 +1705,16 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="18"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> parse_excel: true</t>
         </r>
@@ -1907,7 +1882,6 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
           <t>rubric:</t>
         </r>
@@ -1917,18 +1891,16 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="18"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> score: 1</t>
         </r>
@@ -1938,18 +1910,16 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="18"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> type: relative</t>
         </r>
@@ -1959,18 +1929,16 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="18"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> parse_excel: true
 </t>
@@ -1981,7 +1949,6 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve"> delta: 0.05
 </t>
@@ -1996,7 +1963,6 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
           <t>rubric:</t>
         </r>
@@ -2006,18 +1972,16 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="18"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> score: 1</t>
         </r>
@@ -2027,18 +1991,16 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="18"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> type: relative</t>
         </r>
@@ -2048,18 +2010,16 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="18"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> parse_excel: true</t>
         </r>
@@ -2073,7 +2033,6 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
           <t>rubric:</t>
         </r>
@@ -2083,18 +2042,16 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="18"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> score: 1</t>
         </r>
@@ -2104,18 +2061,16 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="18"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> type: relative</t>
         </r>
@@ -2125,18 +2080,16 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="18"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> parse_excel: true</t>
         </r>
@@ -2304,7 +2257,6 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
           <t>rubric:</t>
         </r>
@@ -2314,18 +2266,16 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="18"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> score: 1</t>
         </r>
@@ -2335,18 +2285,16 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="18"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> type: relative</t>
         </r>
@@ -2356,18 +2304,16 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="18"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> parse_excel: true</t>
         </r>
@@ -2381,7 +2327,6 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
           <t>rubric:</t>
         </r>
@@ -2391,18 +2336,16 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="18"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> score: 1</t>
         </r>
@@ -2412,18 +2355,16 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="18"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> type: relative</t>
         </r>
@@ -2433,18 +2374,16 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="18"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> parse_excel: true</t>
         </r>
@@ -2458,6 +2397,402 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+          </rPr>
+          <t>rubric:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> score: 1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> type: relative</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> parse_excel: true</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B46" authorId="0" shapeId="0" xr:uid="{43A0C2DF-B20F-D143-BCE3-FA769F2A384B}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>rubric:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> score: 1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> type: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>relative</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> parse_excel: true</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B47" authorId="1" shapeId="0" xr:uid="{819B5873-7A68-B04A-A622-1ECA025DC15C}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>rubric:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>score: 1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>type: relative</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>parse_excel: true</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B48" authorId="1" shapeId="0" xr:uid="{71EBBE38-7DB9-9B46-B1AD-C775BDB6A879}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>rubric:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> score: 1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> type: relative</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> parse_excel: true</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B49" authorId="1" shapeId="0" xr:uid="{40FA9D86-0549-854A-A56D-0BE6F8BBC62F}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>rubric:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> score: 1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> type: relative</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> parse_excel: true</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B50" authorId="1" shapeId="0" xr:uid="{BC2F58E3-A7BC-A54D-BC36-696F428B7FFF}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>rubric:</t>
@@ -2522,6 +2857,584 @@
             <rFont val="Calibri"/>
             <family val="2"/>
             <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> parse_excel: true</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B51" authorId="1" shapeId="0" xr:uid="{40B83FDC-11DD-3143-A500-51BD2C19BC61}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>rubric:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> score: 1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> type: relative</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> parse_excel: true</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B52" authorId="1" shapeId="0" xr:uid="{C995DDB5-E619-F94A-8A28-B28F9BEFD0FD}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>rubric:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> score: 1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> type: relative</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> parse_excel: true
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> delta: 0.05
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B53" authorId="1" shapeId="0" xr:uid="{740BCFAB-91CE-374F-A67C-91D373AA228A}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>rubric:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> score: 1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> type: relative</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> parse_excel: true</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B54" authorId="1" shapeId="0" xr:uid="{9EB17EE4-2F5D-9E49-B8B1-A11B5EBD8860}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>rubric:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> score: 1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> type: relative</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> parse_excel: true</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B55" authorId="1" shapeId="0" xr:uid="{5D2EAF2E-9AEF-8043-B9BD-19E7E259D85E}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>rubric:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> score: 1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> type: relative</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> parse_excel: true</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B56" authorId="1" shapeId="0" xr:uid="{45224780-F82C-0D4B-9066-95AC59AFCE10}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>rubric:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> score: 1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> type: relative</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> parse_excel: true</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B57" authorId="1" shapeId="0" xr:uid="{BB21FCB0-B207-024A-B83B-E669A5D5B19A}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>rubric:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> score: 1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> type: relative</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> parse_excel: true</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B58" authorId="1" shapeId="0" xr:uid="{8F640E8A-DAD6-9747-9DFC-6424DE8F6A10}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>rubric:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> score: 1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> type: relative</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve"> parse_excel: true</t>
         </r>
@@ -9182,7 +10095,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1282" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="572">
   <si>
     <t>Number</t>
   </si>
@@ -10781,6 +11694,123 @@
   </si>
   <si>
     <t>XL30</t>
+  </si>
+  <si>
+    <t>XL31</t>
+  </si>
+  <si>
+    <t>XL32</t>
+  </si>
+  <si>
+    <t>XL33</t>
+  </si>
+  <si>
+    <t>XL34</t>
+  </si>
+  <si>
+    <t>XL35</t>
+  </si>
+  <si>
+    <t>XL36</t>
+  </si>
+  <si>
+    <t>XL37</t>
+  </si>
+  <si>
+    <t>XL38</t>
+  </si>
+  <si>
+    <t>XL39</t>
+  </si>
+  <si>
+    <t>XL40</t>
+  </si>
+  <si>
+    <t>XL41</t>
+  </si>
+  <si>
+    <t>XL42</t>
+  </si>
+  <si>
+    <t>XL43</t>
+  </si>
+  <si>
+    <t>B46</t>
+  </si>
+  <si>
+    <t>B47</t>
+  </si>
+  <si>
+    <t>B48</t>
+  </si>
+  <si>
+    <t>B49</t>
+  </si>
+  <si>
+    <t>B50</t>
+  </si>
+  <si>
+    <t>B51</t>
+  </si>
+  <si>
+    <t>B52</t>
+  </si>
+  <si>
+    <t>B53</t>
+  </si>
+  <si>
+    <t>B54</t>
+  </si>
+  <si>
+    <t>B55</t>
+  </si>
+  <si>
+    <t>B56</t>
+  </si>
+  <si>
+    <t>B57</t>
+  </si>
+  <si>
+    <t>B58</t>
+  </si>
+  <si>
+    <t>T-Relative-Excel-Length-Bad</t>
+  </si>
+  <si>
+    <t>T-Relative-XL-SQRT-Bad</t>
+  </si>
+  <si>
+    <t>T-Relative-XL-AVG-Bad</t>
+  </si>
+  <si>
+    <t>T-Relative-XL-ROUND-Bad</t>
+  </si>
+  <si>
+    <t>T-Relative-XL-Concat-Bad</t>
+  </si>
+  <si>
+    <t>T-Relative-XL-Ln-Bad</t>
+  </si>
+  <si>
+    <t>T-Relative-XL-STDEV-Bad</t>
+  </si>
+  <si>
+    <t>T-Relative-XL-COUNTIF-Bad</t>
+  </si>
+  <si>
+    <t>T-Relative-XL-IF1-Bad</t>
+  </si>
+  <si>
+    <t>T-Relative-XL-IF2-Bad</t>
+  </si>
+  <si>
+    <t>T-Relative-XL-Ifand-Bad</t>
+  </si>
+  <si>
+    <t>T-Relative-XL-Ifor-Bad</t>
+  </si>
+  <si>
+    <t>T-Relative-XL-Ifnot-Bad</t>
   </si>
 </sst>
 </file>
@@ -10934,10 +11964,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11450,7 +12480,7 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="11" t="s">
         <v>124</v>
       </c>
       <c r="B5">
@@ -11461,7 +12491,7 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="10"/>
+      <c r="A6" s="11"/>
       <c r="B6">
         <v>5</v>
       </c>
@@ -11470,7 +12500,7 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="10"/>
+      <c r="A7" s="11"/>
       <c r="B7">
         <v>10</v>
       </c>
@@ -11479,7 +12509,7 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="10"/>
+      <c r="A8" s="11"/>
       <c r="B8">
         <v>1</v>
       </c>
@@ -11488,7 +12518,7 @@
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="10"/>
+      <c r="A9" s="11"/>
       <c r="B9">
         <v>6</v>
       </c>
@@ -13219,10 +14249,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CFDFF2D-5588-974C-8962-7185857425AC}">
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -13261,7 +14291,7 @@
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="11" t="s">
         <v>124</v>
       </c>
       <c r="B5">
@@ -13272,7 +14302,7 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="10"/>
+      <c r="A6" s="11"/>
       <c r="B6">
         <v>5</v>
       </c>
@@ -13284,7 +14314,7 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="10"/>
+      <c r="A7" s="11"/>
       <c r="B7">
         <v>10</v>
       </c>
@@ -13293,7 +14323,7 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="10"/>
+      <c r="A8" s="11"/>
       <c r="B8">
         <v>1</v>
       </c>
@@ -13302,7 +14332,7 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="10"/>
+      <c r="A9" s="11"/>
       <c r="B9">
         <v>6</v>
       </c>
@@ -13520,7 +14550,7 @@
       <c r="A33" t="s">
         <v>482</v>
       </c>
-      <c r="B33" s="11">
+      <c r="B33" s="10">
         <f>SQRT(D6)</f>
         <v>2</v>
       </c>
@@ -13629,6 +14659,84 @@
         <v>523</v>
       </c>
       <c r="B45">
+        <f>IF(NOT(2&lt;1), 0, 100)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="B46" t="b">
+        <f>C21 &gt; LEN("ABCD") - 4 + 10</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="B47" s="10">
+        <f>SQRT(D20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="B48">
+        <f>AVERAGE(B19:B20)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49">
+        <f>ROUND(3.5, 0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" t="str">
+        <f>CONCATENATE("4", "", "5")</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51">
+        <f>LN(EXP(3))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52">
+        <f>_xlfn.STDEV.S(B5, B6, B7)</f>
+        <v>4.0414518843273806</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53">
+        <f>COUNTIF(B18:B21, B18)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54">
+        <f>IF(B19&gt;B20, 1, 2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55">
+        <f>IF(B21&gt;B20, 1, 2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56">
+        <f>IF(AND(1&lt;2, 3&lt;4), 0, 100)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57">
+        <f>IF(OR(2&lt;1, 3&lt;4), 0, 100)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58">
         <f>IF(NOT(2&lt;1), 0, 100)</f>
         <v>0</v>
       </c>
@@ -14050,10 +15158,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{529BA031-6D75-6C46-BAF1-3106D5A9BED1}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView showFormulas="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -14564,11 +15672,235 @@
         <v>512</v>
       </c>
       <c r="D31" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E31" t="s">
         <v>416</v>
       </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>533</v>
+      </c>
+      <c r="B32" t="s">
+        <v>546</v>
+      </c>
+      <c r="C32" t="s">
+        <v>559</v>
+      </c>
+      <c r="D32" t="s">
+        <v>60</v>
+      </c>
+      <c r="E32" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>534</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="C33" t="s">
+        <v>560</v>
+      </c>
+      <c r="D33" t="s">
+        <v>60</v>
+      </c>
+      <c r="E33" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="6" t="s">
+        <v>535</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="C34" t="s">
+        <v>561</v>
+      </c>
+      <c r="D34" t="s">
+        <v>60</v>
+      </c>
+      <c r="E34" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>536</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="C35" t="s">
+        <v>562</v>
+      </c>
+      <c r="D35" t="s">
+        <v>60</v>
+      </c>
+      <c r="E35" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>537</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="C36" t="s">
+        <v>563</v>
+      </c>
+      <c r="D36" t="s">
+        <v>60</v>
+      </c>
+      <c r="E36" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>538</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="C37" t="s">
+        <v>564</v>
+      </c>
+      <c r="D37" t="s">
+        <v>60</v>
+      </c>
+      <c r="E37" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>539</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="C38" t="s">
+        <v>565</v>
+      </c>
+      <c r="D38" t="s">
+        <v>60</v>
+      </c>
+      <c r="E38" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>540</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="C39" t="s">
+        <v>566</v>
+      </c>
+      <c r="D39" t="s">
+        <v>60</v>
+      </c>
+      <c r="E39" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>541</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="C40" t="s">
+        <v>567</v>
+      </c>
+      <c r="D40" t="s">
+        <v>60</v>
+      </c>
+      <c r="E40" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>568</v>
+      </c>
+      <c r="D41" t="s">
+        <v>60</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="D42" t="s">
+        <v>60</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>570</v>
+      </c>
+      <c r="D43" t="s">
+        <v>60</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="D44" t="s">
+        <v>60</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15075,7 +16407,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71EABA77-C8A8-0247-A6AC-2452B8B329D1}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
@@ -16728,7 +18060,7 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="11" t="s">
         <v>124</v>
       </c>
       <c r="B5">
@@ -16739,7 +18071,7 @@
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="10"/>
+      <c r="A6" s="11"/>
       <c r="B6">
         <v>5</v>
       </c>
@@ -16748,7 +18080,7 @@
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="10"/>
+      <c r="A7" s="11"/>
       <c r="B7">
         <v>10</v>
       </c>
@@ -16757,7 +18089,7 @@
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="10"/>
+      <c r="A8" s="11"/>
       <c r="B8">
         <v>1</v>
       </c>
@@ -16766,7 +18098,7 @@
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="10"/>
+      <c r="A9" s="11"/>
       <c r="B9">
         <v>6</v>
       </c>

--- a/excel/TestModeKey.xlsx
+++ b/excel/TestModeKey.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrew/git/pysheetgrader/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC5F84A1-D8AE-C74E-BEAA-E75DDB18B53D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FFE9B6E-55E0-8B43-BD69-C89E1B4B9A61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="33600" windowHeight="14140" tabRatio="883" activeTab="1" xr2:uid="{6E72627C-1CB6-4848-9B50-C1295434D515}"/>
   </bookViews>
@@ -3440,6 +3440,76 @@
         </r>
       </text>
     </comment>
+    <comment ref="B59" authorId="1" shapeId="0" xr:uid="{ED6074F5-A210-0B4F-8CD3-4B4E6A85E6F4}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>rubric:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> score: 1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> type: relative</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> parse_excel: true</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -10095,7 +10165,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="575">
   <si>
     <t>Number</t>
   </si>
@@ -11811,6 +11881,15 @@
   </si>
   <si>
     <t>T-Relative-XL-Ifnot-Bad</t>
+  </si>
+  <si>
+    <t>XL44</t>
+  </si>
+  <si>
+    <t>B59</t>
+  </si>
+  <si>
+    <t>T-Relative-XL-badrange</t>
   </si>
 </sst>
 </file>
@@ -14249,10 +14328,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CFDFF2D-5588-974C-8962-7185857425AC}">
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -14738,6 +14817,12 @@
     <row r="58" spans="2:2">
       <c r="B58">
         <f>IF(NOT(2&lt;1), 0, 100)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59">
+        <f>COUNTIF(BB24:BB27, B24)</f>
         <v>0</v>
       </c>
     </row>
@@ -15160,8 +15245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{529BA031-6D75-6C46-BAF1-3106D5A9BED1}">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView showFormulas="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView showFormulas="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
@@ -15900,7 +15985,21 @@
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="6"/>
+      <c r="A45" s="6" t="s">
+        <v>572</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="D45" t="s">
+        <v>60</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>416</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
